--- a/output/daily_eval_20260130.xlsx
+++ b/output/daily_eval_20260130.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -44,11 +44,29 @@
       <color rgb="00FFFFFF"/>
     </font>
     <font>
+      <b val="1"/>
+      <color rgb="002E7D32"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <i val="1"/>
       <color rgb="00666666"/>
     </font>
+    <font>
+      <i val="1"/>
+      <color rgb="009C27B0"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -81,6 +99,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="009C27B0"/>
+        <bgColor rgb="009C27B0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="002E7D32"/>
         <bgColor rgb="002E7D32"/>
       </patternFill>
@@ -89,6 +113,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00F9A825"/>
         <bgColor rgb="00F9A825"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E1BEE7"/>
+        <bgColor rgb="00E1BEE7"/>
       </patternFill>
     </fill>
   </fills>
@@ -110,7 +140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -123,14 +153,21 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -144,6 +181,14 @@
         <patternFill patternType="solid">
           <fgColor rgb="00FFC7CE"/>
           <bgColor rgb="00FFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00E1BEE7"/>
+          <bgColor rgb="00E1BEE7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -539,7 +584,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-01-30 12:53:16</t>
+          <t>2026-01-30 13:08:08</t>
         </is>
       </c>
     </row>
@@ -550,7 +595,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -571,7 +616,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$691.67</t>
+          <t>$691.92</t>
         </is>
       </c>
     </row>
@@ -583,7 +628,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>47.6</t>
         </is>
       </c>
     </row>
@@ -604,7 +649,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -614,7 +659,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -624,7 +669,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -638,7 +683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,7 +776,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
@@ -741,42 +786,42 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>PULLBACK_SUPPORT, RS_LEADER</t>
+          <t>RS_LEADER</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr"/>
       <c r="E2" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>374.6849975585938</v>
+        <v>338.2330017089844</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>50.04134076457417</v>
+        <v>61.2735244125528</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>-0.638454129071321</v>
+        <v>0.1570527391555627</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.5141743198544929</v>
+        <v>0.8720755402638948</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.459009192996623</v>
+        <v>6.595214173956387</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.9208785482642337</v>
+        <v>44.41082119392509</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.974077904400397</v>
+        <v>2.446009980107249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
@@ -786,7 +831,7 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>RS_LEADER</t>
+          <t>PULLBACK_SUPPORT</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr"/>
@@ -797,31 +842,31 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>338.0400085449219</v>
+        <v>239.3000030517578</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>60.99883529943013</v>
+        <v>40.34877960673442</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.1447363602682463</v>
+        <v>0.03482195344377326</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.6542468895266791</v>
+        <v>1.016113440112521</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.570610030363921</v>
+        <v>2.207408736347927</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>44.32901611722072</v>
+        <v>7.897459507063534</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.447406451511392</v>
+        <v>2.342695946792546</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
@@ -831,7 +876,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>PULLBACK_SUPPORT</t>
+          <t>RS_LEADER</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr"/>
@@ -842,31 +887,31 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>238.9700012207031</v>
+        <v>716.5</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>40.03317945550105</v>
+        <v>64.16198438722431</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.01376200169383868</v>
+        <v>10.41022731197927</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.7691548262895774</v>
+        <v>1.248180421994544</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.101494414937344</v>
+        <v>7.079352229975754</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.749467319683778</v>
+        <v>5.276925142563941</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.342045185805965</v>
+        <v>3.134882693727569</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
@@ -876,7 +921,7 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>RS_LEADER</t>
+          <t>PULLBACK_SUPPORT</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr"/>
@@ -887,25 +932,25 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>716.77001953125</v>
+        <v>374.6000061035156</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>64.23942838481167</v>
+        <v>49.96317330904813</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.42745932631945</v>
+        <v>-0.6438780899055114</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.013711631560223</v>
+        <v>0.6073763513052883</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.157313714600599</v>
+        <v>7.397254540970465</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.316390292829531</v>
+        <v>0.8981018330839937</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.133701729774811</v>
+        <v>1.974525794818974</v>
       </c>
     </row>
     <row r="6">
@@ -932,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>119.245002746582</v>
+        <v>119.1399993896484</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>66.15279584860824</v>
+        <v>65.90751850482879</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>-0.2160404981846531</v>
+        <v>-0.2227415680485463</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.2632466343083429</v>
+        <v>0.4238171942686033</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>5.603188600897147</v>
+        <v>5.471884099628355</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>16.05704278938381</v>
+        <v>15.955439029364</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.098919083139682</v>
+        <v>2.100768953466951</v>
       </c>
     </row>
     <row r="7">
@@ -977,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>110.4000015258789</v>
+        <v>110.3000030517578</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>49.6434521714493</v>
+        <v>49.36570364266976</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>-0.5024822804229612</v>
+        <v>-0.5088639496688867</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.9781831883715665</v>
+        <v>1.08563911030361</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>3.453753115797942</v>
+        <v>3.321696703013921</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>27.37877962896279</v>
+        <v>27.26413634508197</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>2.241201744931752</v>
+        <v>2.250681205802798</v>
       </c>
     </row>
     <row r="8">
@@ -1022,31 +1067,31 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>236.7100067138672</v>
+        <v>236.7299957275391</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>70.36677801592741</v>
+        <v>70.38386453636789</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1.420722224103823</v>
+        <v>1.421997870671456</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.8676710417427262</v>
+        <v>1.012912650782181</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>9.100119191539035</v>
+        <v>9.072397859264836</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>34.64549232515965</v>
+        <v>34.65678593143525</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>5.279513976037227</v>
+        <v>5.279068184295781</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>TMO</t>
         </is>
       </c>
       <c r="B9" s="5" t="inlineStr">
@@ -1056,7 +1101,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>RS_LEADER</t>
+          <t>OVERSOLD_BOUNCE</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr"/>
@@ -1067,76 +1112,72 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>456.2200012207031</v>
+        <v>578.0499877929688</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>64.74018553623648</v>
+        <v>32.80817476328268</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.8496834427112674</v>
+        <v>-5.719354266081249</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0.777709944376611</v>
+        <v>1.094676224378179</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>5.566546592429877</v>
+        <v>-1.708060343903883</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>1.415548198619461</v>
+        <v>16.09262995787316</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>1.402322722207638</v>
+        <v>2.90212003708191</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>CAT</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>BULLISH</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>RS_LEADER</t>
-        </is>
-      </c>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr"/>
       <c r="D10" s="4" t="inlineStr"/>
       <c r="E10" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>657.7750244140625</v>
+        <v>259.4800109863281</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>65.58567961631309</v>
+        <v>50.16623735466336</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>1.068741664091611</v>
+        <v>0.9792586230171914</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.901838137079473</v>
+        <v>1.549974343272928</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>13.66024908031127</v>
+        <v>-6.020252993194641</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>41.80170976630377</v>
+        <v>9.773070118113514</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>2.941674112791638</v>
+        <v>2.255333288294106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B11" s="6" t="inlineStr">
@@ -1153,31 +1194,31 @@
         <v>0</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>260.3599853515625</v>
+        <v>191.1300048828125</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>51.45715497229429</v>
+        <v>59.0267931950917</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.035416534264722</v>
+        <v>0.7207170031539905</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>1.22238245860636</v>
+        <v>1.013788401179667</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>-5.659511370887927</v>
+        <v>1.016128630773516</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>10.14329327735029</v>
+        <v>13.94202974680006</v>
       </c>
       <c r="M11" s="4" t="n">
-        <v>2.247710628936223</v>
+        <v>2.690015719662461</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>NVDA</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="B12" s="6" t="inlineStr">
@@ -1194,31 +1235,31 @@
         <v>0</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>191.0899963378906</v>
+        <v>331.2999877929688</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>58.95887320976792</v>
+        <v>41.87371853040859</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>0.7181637599613263</v>
+        <v>0.04801371860111026</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>0.8426317330530957</v>
+        <v>1.00709833922325</v>
       </c>
       <c r="K12" s="4" t="n">
-        <v>1.031731342121356</v>
+        <v>-5.742673674472099</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>13.91831466162983</v>
+        <v>8.800421719221086</v>
       </c>
       <c r="M12" s="4" t="n">
-        <v>2.690578928709628</v>
+        <v>3.833489450097461</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>COST</t>
         </is>
       </c>
       <c r="B13" s="6" t="inlineStr">
@@ -1235,31 +1276,31 @@
         <v>0</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>331.489990234375</v>
+        <v>940.25</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>42.00472860137731</v>
+        <v>56.56556544446924</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>0.06013921985446125</v>
+        <v>-1.835183686275776</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>0.8046550212942131</v>
+        <v>0.7904707232233056</v>
       </c>
       <c r="K13" s="4" t="n">
-        <v>-5.650720527291497</v>
+        <v>7.568268374676745</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>8.862479882672352</v>
+        <v>-1.012780250029127</v>
       </c>
       <c r="M13" s="4" t="n">
-        <v>3.831292182077064</v>
+        <v>1.788659515421431</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B14" s="6" t="inlineStr">
@@ -1276,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>433.7000122070312</v>
+        <v>151.8200073242188</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>45.07532792522911</v>
+        <v>74.82891096727408</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>-1.216091669423149</v>
+        <v>0.7840329937332655</v>
       </c>
       <c r="J14" s="4" t="n">
-        <v>1.167130310130454</v>
+        <v>0.6763413658394768</v>
       </c>
       <c r="K14" s="4" t="n">
-        <v>-4.99160673730823</v>
+        <v>5.223898189611487</v>
       </c>
       <c r="L14" s="4" t="n">
-        <v>14.96686169652718</v>
+        <v>-0.03251987740363396</v>
       </c>
       <c r="M14" s="4" t="n">
-        <v>3.310385121792968</v>
+        <v>1.593768766107833</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="B15" s="6" t="inlineStr">
@@ -1317,31 +1358,31 @@
         <v>0</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>941.47998046875</v>
+        <v>222.9799957275391</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>57.16627775353658</v>
+        <v>58.49308442572263</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>-1.756689207609636</v>
+        <v>0.5969168075954141</v>
       </c>
       <c r="J15" s="4" t="n">
-        <v>0.5867813775434738</v>
+        <v>0.4775192461341737</v>
       </c>
       <c r="K15" s="4" t="n">
-        <v>7.747956275083977</v>
+        <v>-3.09276345837477</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>-0.8839326708576675</v>
+        <v>8.520047890917027</v>
       </c>
       <c r="M15" s="4" t="n">
-        <v>1.786322751693202</v>
+        <v>2.306584529463147</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B16" s="6" t="inlineStr">
@@ -1358,1592 +1399,720 @@
         <v>0</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>151.7850036621094</v>
+        <v>83.49700164794922</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>74.78889150714554</v>
+        <v>28.10456710701331</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>0.781799145411322</v>
+        <v>0.02629677514327966</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>0.5899014722766764</v>
+        <v>0.8129031307776228</v>
       </c>
       <c r="K16" s="4" t="n">
-        <v>5.236354648747432</v>
+        <v>-12.41248040848931</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>-0.05545373010938025</v>
+        <v>-25.99528700862593</v>
       </c>
       <c r="M16" s="4" t="n">
-        <v>1.594136310608431</v>
+        <v>2.761007337104326</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>ABBV</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>NEUTRAL</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr"/>
-      <c r="D17" s="4" t="inlineStr"/>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>BEARISH (Mixed)</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>VOLUME_ACCUMULATION, RS_LEADER</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>OVERBOUGHT_WARNING</t>
+        </is>
+      </c>
       <c r="E17" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>223.4199981689453</v>
+        <v>177</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>59.14876086933894</v>
+        <v>88.95871976084146</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>0.6249967201550626</v>
+        <v>0.7195142458257049</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>0.3875425485620554</v>
+        <v>1.370256740277717</v>
       </c>
       <c r="K17" s="4" t="n">
-        <v>-2.861589410700083</v>
+        <v>14.66766143054252</v>
       </c>
       <c r="L17" s="4" t="n">
-        <v>8.733024354262801</v>
+        <v>18.73572929526418</v>
       </c>
       <c r="M17" s="4" t="n">
-        <v>2.302041951213253</v>
+        <v>1.738095533665002</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>NFLX</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
-        <is>
-          <t>NEUTRAL</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr"/>
-      <c r="D18" s="4" t="inlineStr"/>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>BEARISH (Mixed)</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>RS_LEADER</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>OVERBOUGHT_WARNING</t>
+        </is>
+      </c>
       <c r="E18" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>83.58499908447266</v>
+        <v>141.6100006103516</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>28.56619570905285</v>
+        <v>91.34241736058542</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>0.03191256528833986</v>
+        <v>1.000549433576086</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>0.6601698001825668</v>
+        <v>1.17543688449092</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>-12.28157147516595</v>
+        <v>16.20847743130389</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>-25.91758238645852</v>
+        <v>26.161640683174</v>
       </c>
       <c r="M18" s="4" t="n">
-        <v>2.758100576674239</v>
+        <v>1.966162468982182</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>TMO</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>NEUTRAL</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr"/>
-      <c r="D19" s="4" t="inlineStr"/>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>BEARISH (Mixed)</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>RS_LEADER</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>OVERBOUGHT_WARNING</t>
+        </is>
+      </c>
       <c r="E19" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>577.344970703125</v>
+        <v>227.2400054931641</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>32.61444557477111</v>
+        <v>92.42477984413725</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>-5.764346792504885</v>
+        <v>1.017654385083004</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>0.9538740838948401</v>
+        <v>0.7226962844673007</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>-1.792675374517549</v>
+        <v>8.337857115348379</v>
       </c>
       <c r="L19" s="4" t="n">
-        <v>15.95185864960432</v>
+        <v>27.54843657741756</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>2.905663922153654</v>
+        <v>1.873098137192826</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>ACN</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
-        <is>
-          <t>NEUTRAL</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr"/>
-      <c r="D20" s="4" t="inlineStr"/>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>BEARISH (Mixed)</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>RS_LEADER</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>OVERBOUGHT_WARNING</t>
+        </is>
+      </c>
       <c r="E20" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>263.4049987792969</v>
+        <v>74.84999847412109</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>37.74749097965496</v>
+        <v>76.2711332131351</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>-2.762463337900019</v>
+        <v>0.3726372552686117</v>
       </c>
       <c r="J20" s="4" t="n">
-        <v>0.6674725241806879</v>
+        <v>1.122708171164819</v>
       </c>
       <c r="K20" s="4" t="n">
-        <v>-3.25383893012483</v>
+        <v>5.599772502435818</v>
       </c>
       <c r="L20" s="4" t="n">
-        <v>-3.031984518081863</v>
+        <v>8.124749730999055</v>
       </c>
       <c r="M20" s="4" t="n">
-        <v>3.476994779024438</v>
+        <v>1.469605325930522</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>CSCO</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
-        <is>
-          <t>NEUTRAL</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr"/>
-      <c r="D21" s="4" t="inlineStr"/>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>BEARISH (Mixed)</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>RS_LEADER</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>OVERBOUGHT_WARNING</t>
+        </is>
+      </c>
       <c r="E21" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>78.47499847412109</v>
+        <v>153.6300048828125</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>69.84882260120568</v>
+        <v>82.20654794909157</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>0.5193136987511232</v>
+        <v>0.9481993690424446</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>0.7955226740576001</v>
+        <v>1.197720968312898</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>0.9916405306406695</v>
+        <v>5.577866882942795</v>
       </c>
       <c r="L21" s="4" t="n">
-        <v>14.32483712625878</v>
+        <v>10.04225042969494</v>
       </c>
       <c r="M21" s="4" t="n">
-        <v>2.004733953809749</v>
+        <v>1.797686803918246</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>MCD</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="inlineStr">
-        <is>
-          <t>NEUTRAL</t>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr"/>
-      <c r="D22" s="4" t="inlineStr"/>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>TREND_REVERSAL</t>
+        </is>
+      </c>
       <c r="E22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>314.8399963378906</v>
+        <v>430.2900085449219</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>64.00889146612545</v>
+        <v>31.21981408212115</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>1.015640978844439</v>
+        <v>-1.916510822521177</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>0.5900921725914371</v>
+        <v>1.62667405145188</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>1.584052089133325</v>
+        <v>-12.49369785051473</v>
       </c>
       <c r="L22" s="4" t="n">
-        <v>3.619156003093567</v>
+        <v>-11.24874285880285</v>
       </c>
       <c r="M22" s="4" t="n">
-        <v>1.327924818095151</v>
+        <v>3.403517962804611</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>WFC</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="inlineStr">
-        <is>
-          <t>NEUTRAL</t>
+          <t>BRK-B</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr"/>
-      <c r="D23" s="4" t="inlineStr"/>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>TREND_REVERSAL, DEATH_CROSS</t>
+        </is>
+      </c>
       <c r="E23" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" s="4" t="n">
-        <v>90.69999694824219</v>
+        <v>480.875</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>35.35972631184791</v>
+        <v>29.59357105416206</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>-0.1054317628536534</v>
+        <v>-1.25530396348582</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>0.6843724096030344</v>
+        <v>0.7487066683810242</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>-4.111796220952568</v>
+        <v>-5.798486739241948</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>11.36044454679026</v>
+        <v>-2.799431815727516</v>
       </c>
       <c r="M23" s="4" t="n">
-        <v>2.460230472853042</v>
+        <v>1.238925050886126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>IBM</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
-        <is>
-          <t>NEUTRAL</t>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr"/>
-      <c r="D24" s="4" t="inlineStr"/>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>TREND_REVERSAL</t>
+        </is>
+      </c>
       <c r="E24" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>306.8299865722656</v>
+        <v>1037.989990234375</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>51.4276261450355</v>
+        <v>43.53147857300348</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>0.7580074675929462</v>
+        <v>-6.253975906968336</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>0.7219989364312601</v>
+        <v>0.8516686737207941</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>2.155899972295083</v>
+        <v>-4.880492977869356</v>
       </c>
       <c r="L24" s="4" t="n">
-        <v>11.263452437063</v>
+        <v>21.90431781373609</v>
       </c>
       <c r="M24" s="4" t="n">
-        <v>3.208616977388353</v>
+        <v>2.946214555713035</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>GE</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="inlineStr">
-        <is>
-          <t>NEUTRAL</t>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr"/>
-      <c r="D25" s="4" t="inlineStr"/>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>TREND_REVERSAL</t>
+        </is>
+      </c>
       <c r="E25" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>306.6799926757812</v>
+        <v>306.1099853515625</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>41.39045831349403</v>
+        <v>28.75553383222095</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>-2.369683733741808</v>
+        <v>-0.9633686499708771</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>0.814886090193695</v>
+        <v>0.6703951239983474</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>-1.867663682620568</v>
+        <v>-6.037618815815915</v>
       </c>
       <c r="L25" s="4" t="n">
-        <v>12.15417667078899</v>
+        <v>5.232165994521971</v>
       </c>
       <c r="M25" s="4" t="n">
-        <v>3.074399854545517</v>
+        <v>2.207364957250009</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>DIS</t>
-        </is>
-      </c>
-      <c r="B26" s="6" t="inlineStr">
-        <is>
-          <t>NEUTRAL</t>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B26" s="7" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr"/>
-      <c r="D26" s="4" t="inlineStr"/>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>TREND_REVERSAL</t>
+        </is>
+      </c>
       <c r="E26" s="4" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>112.6750030517578</v>
+        <v>430.4100036621094</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>40.7128521825024</v>
+        <v>43.45525687008354</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>-0.286411221898038</v>
+        <v>-1.426052320406293</v>
       </c>
       <c r="J26" s="4" t="n">
-        <v>1.160432689872804</v>
+        <v>1.261587447665551</v>
       </c>
       <c r="K26" s="4" t="n">
-        <v>-2.391855232488116</v>
+        <v>-5.760229957556207</v>
       </c>
       <c r="L26" s="4" t="n">
-        <v>1.269988109044153</v>
+        <v>14.09970909815533</v>
       </c>
       <c r="M26" s="4" t="n">
-        <v>1.984847789266615</v>
+        <v>3.335689355535247</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B27" s="7" t="inlineStr">
         <is>
-          <t>BEARISH (Mixed)</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>VOLUME_ACCUMULATION, RS_LEADER</t>
-        </is>
-      </c>
+          <t>BEARISH</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr"/>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>OVERBOUGHT_WARNING</t>
+          <t>TREND_REVERSAL, DEATH_CROSS</t>
         </is>
       </c>
       <c r="E27" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="F27" s="4" t="n">
-        <v>1</v>
-      </c>
       <c r="G27" s="4" t="n">
-        <v>177.1399993896484</v>
+        <v>287.0499877929688</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>89.03901975798334</v>
+        <v>29.68381388004029</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>0.7284486927520843</v>
+        <v>-6.84055989926479</v>
       </c>
       <c r="J27" s="4" t="n">
-        <v>1.260082194916359</v>
+        <v>0.9264597453887032</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>14.79657353178954</v>
+        <v>-14.5105843560343</v>
       </c>
       <c r="L27" s="4" t="n">
-        <v>18.82908597865714</v>
+        <v>-11.90049584916326</v>
       </c>
       <c r="M27" s="4" t="n">
-        <v>1.733092918209147</v>
+        <v>4.6863434974964</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B28" s="7" t="inlineStr">
         <is>
-          <t>BEARISH (Mixed)</t>
-        </is>
-      </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>RS_LEADER, GOLDEN_CROSS</t>
-        </is>
-      </c>
+          <t>BEARISH</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr"/>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>OVERBOUGHT_WARNING</t>
+          <t>TREND_REVERSAL</t>
         </is>
       </c>
       <c r="E28" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>180</v>
+        <v>321.9299926757812</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>76.96122660734116</v>
+        <v>22.90770406808674</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>0.8749669357912264</v>
+        <v>-0.9282280264570835</v>
       </c>
       <c r="J28" s="4" t="n">
-        <v>1.099001163129242</v>
+        <v>1.079590571167196</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>10.79006294208513</v>
+        <v>-9.67265782496165</v>
       </c>
       <c r="L28" s="4" t="n">
-        <v>10.27738149092596</v>
+        <v>-6.447148114749305</v>
       </c>
       <c r="M28" s="4" t="n">
-        <v>2.344292534722222</v>
+        <v>2.278446407943208</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="B29" s="7" t="inlineStr">
         <is>
-          <t>BEARISH (Mixed)</t>
-        </is>
-      </c>
-      <c r="C29" s="4" t="inlineStr">
-        <is>
-          <t>RS_LEADER, GOLDEN_CROSS</t>
-        </is>
-      </c>
+          <t>BEARISH</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr"/>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>OVERBOUGHT_WARNING</t>
+          <t>TREND_REVERSAL</t>
         </is>
       </c>
       <c r="E29" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>215.7799987792969</v>
+        <v>538.72998046875</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>74.77142996217509</v>
+        <v>32.118915681583</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>2.470986920454971</v>
+        <v>-0.9868135193491137</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>0.702063879897025</v>
+        <v>0.7497693393902054</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>22.94664738746106</v>
+        <v>-6.956362878573663</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>18.48229133085552</v>
+        <v>-4.110946565156336</v>
       </c>
       <c r="M29" s="4" t="n">
-        <v>2.843008429600608</v>
+        <v>2.387991207827085</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>CRM</t>
         </is>
       </c>
       <c r="B30" s="7" t="inlineStr">
         <is>
-          <t>BEARISH (Mixed)</t>
-        </is>
-      </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>VOLUME_ACCUMULATION, RS_LEADER</t>
-        </is>
-      </c>
+          <t>BEARISH</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr"/>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>OVERBOUGHT_WARNING</t>
+          <t>TREND_REVERSAL</t>
         </is>
       </c>
       <c r="E30" s="4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>44.46500015258789</v>
+        <v>212.3099975585938</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>76.69129265397243</v>
+        <v>14.11780150091204</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>0.3522321995047522</v>
+        <v>-2.469163487796931</v>
       </c>
       <c r="J30" s="4" t="n">
-        <v>3.212482544392613</v>
+        <v>0.9730491880406956</v>
       </c>
       <c r="K30" s="4" t="n">
-        <v>9.634835938690589</v>
+        <v>-21.32224982645494</v>
       </c>
       <c r="L30" s="4" t="n">
-        <v>9.087580478605423</v>
+        <v>-16.2458685779475</v>
       </c>
       <c r="M30" s="4" t="n">
-        <v>1.983100249577078</v>
+        <v>3.789944141970756</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>BAC</t>
         </is>
       </c>
       <c r="B31" s="7" t="inlineStr">
         <is>
-          <t>BEARISH (Mixed)</t>
-        </is>
-      </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>RS_LEADER</t>
-        </is>
-      </c>
+          <t>BEARISH</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr"/>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>OVERBOUGHT_WARNING</t>
+          <t>TREND_REVERSAL</t>
         </is>
       </c>
       <c r="E31" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="4" t="n">
         <v>1</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>141.9450073242188</v>
+        <v>53.22999954223633</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>91.48122318575993</v>
+        <v>33.82715642388379</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>1.021928784492803</v>
+        <v>-0.08206250435050066</v>
       </c>
       <c r="J31" s="4" t="n">
-        <v>1.077160896685337</v>
+        <v>0.6373153885772423</v>
       </c>
       <c r="K31" s="4" t="n">
-        <v>16.523915962313</v>
+        <v>-4.684630364377462</v>
       </c>
       <c r="L31" s="4" t="n">
-        <v>26.45821395075906</v>
+        <v>9.240334493463081</v>
       </c>
       <c r="M31" s="4" t="n">
-        <v>1.961522097051677</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4" t="inlineStr">
-        <is>
-          <t>JNJ</t>
-        </is>
-      </c>
-      <c r="B32" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH (Mixed)</t>
-        </is>
-      </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>RS_LEADER</t>
-        </is>
-      </c>
-      <c r="D32" s="4" t="inlineStr">
-        <is>
-          <t>OVERBOUGHT_WARNING</t>
-        </is>
-      </c>
-      <c r="E32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4" t="n">
-        <v>227.5899963378906</v>
-      </c>
-      <c r="H32" s="4" t="n">
-        <v>92.67837403741486</v>
-      </c>
-      <c r="I32" s="4" t="n">
-        <v>1.039989984566658</v>
-      </c>
-      <c r="J32" s="4" t="n">
-        <v>0.612325434309449</v>
-      </c>
-      <c r="K32" s="4" t="n">
-        <v>8.544030684755667</v>
-      </c>
-      <c r="L32" s="4" t="n">
-        <v>27.74362896632084</v>
-      </c>
-      <c r="M32" s="4" t="n">
-        <v>1.870217662612042</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="4" t="inlineStr">
-        <is>
-          <t>KO</t>
-        </is>
-      </c>
-      <c r="B33" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH (Mixed)</t>
-        </is>
-      </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>RS_LEADER</t>
-        </is>
-      </c>
-      <c r="D33" s="4" t="inlineStr">
-        <is>
-          <t>OVERBOUGHT_WARNING</t>
-        </is>
-      </c>
-      <c r="E33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="4" t="n">
-        <v>74.81500244140625</v>
-      </c>
-      <c r="H33" s="4" t="n">
-        <v>76.17017092597969</v>
-      </c>
-      <c r="I33" s="4" t="n">
-        <v>0.3704038912810428</v>
-      </c>
-      <c r="J33" s="4" t="n">
-        <v>1.035025898078733</v>
-      </c>
-      <c r="K33" s="4" t="n">
-        <v>5.58676882568574</v>
-      </c>
-      <c r="L33" s="4" t="n">
-        <v>8.074469065191844</v>
-      </c>
-      <c r="M33" s="4" t="n">
-        <v>1.46742866839394</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="4" t="inlineStr">
-        <is>
-          <t>PEP</t>
-        </is>
-      </c>
-      <c r="B34" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH (Mixed)</t>
-        </is>
-      </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>RS_LEADER</t>
-        </is>
-      </c>
-      <c r="D34" s="4" t="inlineStr">
-        <is>
-          <t>OVERBOUGHT_WARNING</t>
-        </is>
-      </c>
-      <c r="E34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="4" t="n">
-        <v>153.0700073242188</v>
-      </c>
-      <c r="H34" s="4" t="n">
-        <v>81.72611016040105</v>
-      </c>
-      <c r="I34" s="4" t="n">
-        <v>0.9124616353432039</v>
-      </c>
-      <c r="J34" s="4" t="n">
-        <v>0.7795148292486545</v>
-      </c>
-      <c r="K34" s="4" t="n">
-        <v>5.224734089280325</v>
-      </c>
-      <c r="L34" s="4" t="n">
-        <v>9.643333812300824</v>
-      </c>
-      <c r="M34" s="4" t="n">
-        <v>1.767632844407667</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-      <c r="B35" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="C35" s="4" t="inlineStr"/>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
-          <t>TREND_REVERSAL</t>
-        </is>
-      </c>
-      <c r="E35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4" t="n">
-        <v>428.1400146484375</v>
-      </c>
-      <c r="H35" s="4" t="n">
-        <v>30.71353548411155</v>
-      </c>
-      <c r="I35" s="4" t="n">
-        <v>-2.053718409773679</v>
-      </c>
-      <c r="J35" s="4" t="n">
-        <v>1.384586880853229</v>
-      </c>
-      <c r="K35" s="4" t="n">
-        <v>-12.90120549251703</v>
-      </c>
-      <c r="L35" s="4" t="n">
-        <v>-11.69024103236289</v>
-      </c>
-      <c r="M35" s="4" t="n">
-        <v>3.420609434277123</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="inlineStr">
-        <is>
-          <t>BRK-B</t>
-        </is>
-      </c>
-      <c r="B36" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr"/>
-      <c r="D36" s="4" t="inlineStr">
-        <is>
-          <t>TREND_REVERSAL, DEATH_CROSS</t>
-        </is>
-      </c>
-      <c r="E36" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G36" s="4" t="n">
-        <v>480.5599975585938</v>
-      </c>
-      <c r="H36" s="4" t="n">
-        <v>29.09338683423553</v>
-      </c>
-      <c r="I36" s="4" t="n">
-        <v>-1.275406676327995</v>
-      </c>
-      <c r="J36" s="4" t="n">
-        <v>0.6348177180509851</v>
-      </c>
-      <c r="K36" s="4" t="n">
-        <v>-5.824100071795113</v>
-      </c>
-      <c r="L36" s="4" t="n">
-        <v>-2.862794866239498</v>
-      </c>
-      <c r="M36" s="4" t="n">
-        <v>1.239737154302414</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="inlineStr">
-        <is>
-          <t>LLY</t>
-        </is>
-      </c>
-      <c r="B37" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr"/>
-      <c r="D37" s="4" t="inlineStr">
-        <is>
-          <t>TREND_REVERSAL</t>
-        </is>
-      </c>
-      <c r="E37" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="4" t="n">
-        <v>1034.890014648438</v>
-      </c>
-      <c r="H37" s="4" t="n">
-        <v>42.63170476748608</v>
-      </c>
-      <c r="I37" s="4" t="n">
-        <v>-6.451809083600665</v>
-      </c>
-      <c r="J37" s="4" t="n">
-        <v>0.7729108800812229</v>
-      </c>
-      <c r="K37" s="4" t="n">
-        <v>-5.131893637024609</v>
-      </c>
-      <c r="L37" s="4" t="n">
-        <v>21.54246089286754</v>
-      </c>
-      <c r="M37" s="4" t="n">
-        <v>2.955039834790393</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="inlineStr">
-        <is>
-          <t>JPM</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="C38" s="4" t="inlineStr"/>
-      <c r="D38" s="4" t="inlineStr">
-        <is>
-          <t>TREND_REVERSAL</t>
-        </is>
-      </c>
-      <c r="E38" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4" t="n">
-        <v>305.8299865722656</v>
-      </c>
-      <c r="H38" s="4" t="n">
-        <v>28.60807038037935</v>
-      </c>
-      <c r="I38" s="4" t="n">
-        <v>-0.9812375161934228</v>
-      </c>
-      <c r="J38" s="4" t="n">
-        <v>0.5912110333031705</v>
-      </c>
-      <c r="K38" s="4" t="n">
-        <v>-6.087852543777239</v>
-      </c>
-      <c r="L38" s="4" t="n">
-        <v>5.136416140417369</v>
-      </c>
-      <c r="M38" s="4" t="n">
-        <v>2.209385882341168</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="4" t="inlineStr">
-        <is>
-          <t>UNH</t>
-        </is>
-      </c>
-      <c r="B39" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="C39" s="4" t="inlineStr"/>
-      <c r="D39" s="4" t="inlineStr">
-        <is>
-          <t>TREND_REVERSAL, DEATH_CROSS</t>
-        </is>
-      </c>
-      <c r="E39" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="G39" s="4" t="n">
-        <v>287.4700012207031</v>
-      </c>
-      <c r="H39" s="4" t="n">
-        <v>29.77306579641287</v>
-      </c>
-      <c r="I39" s="4" t="n">
-        <v>-6.813755615984752</v>
-      </c>
-      <c r="J39" s="4" t="n">
-        <v>0.8758094106793842</v>
-      </c>
-      <c r="K39" s="4" t="n">
-        <v>-14.34629495131182</v>
-      </c>
-      <c r="L39" s="4" t="n">
-        <v>-11.77215706925914</v>
-      </c>
-      <c r="M39" s="4" t="n">
-        <v>4.679496427584527</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="4" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="B40" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="C40" s="4" t="inlineStr"/>
-      <c r="D40" s="4" t="inlineStr">
-        <is>
-          <t>TREND_REVERSAL</t>
-        </is>
-      </c>
-      <c r="E40" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="4" t="n">
-        <v>322.2900085449219</v>
-      </c>
-      <c r="H40" s="4" t="n">
-        <v>23.06934957112608</v>
-      </c>
-      <c r="I40" s="4" t="n">
-        <v>-0.9052526521389637</v>
-      </c>
-      <c r="J40" s="4" t="n">
-        <v>0.972877056761775</v>
-      </c>
-      <c r="K40" s="4" t="n">
-        <v>-9.5329493711377</v>
-      </c>
-      <c r="L40" s="4" t="n">
-        <v>-6.343017222507818</v>
-      </c>
-      <c r="M40" s="4" t="n">
-        <v>2.2759012565513</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="4" t="inlineStr">
-        <is>
-          <t>MA</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="C41" s="4" t="inlineStr"/>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>TREND_REVERSAL</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="4" t="n">
-        <v>537.6300048828125</v>
-      </c>
-      <c r="H41" s="4" t="n">
-        <v>31.77930178294524</v>
-      </c>
-      <c r="I41" s="4" t="n">
-        <v>-1.057011366118112</v>
-      </c>
-      <c r="J41" s="4" t="n">
-        <v>0.6642515825202869</v>
-      </c>
-      <c r="K41" s="4" t="n">
-        <v>-7.112277978685211</v>
-      </c>
-      <c r="L41" s="4" t="n">
-        <v>-4.305795341477654</v>
-      </c>
-      <c r="M41" s="4" t="n">
-        <v>2.392876969418118</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="4" t="inlineStr">
-        <is>
-          <t>CRM</t>
-        </is>
-      </c>
-      <c r="B42" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="C42" s="4" t="inlineStr"/>
-      <c r="D42" s="4" t="inlineStr">
-        <is>
-          <t>TREND_REVERSAL</t>
-        </is>
-      </c>
-      <c r="E42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="4" t="n">
-        <v>212.1799926757812</v>
-      </c>
-      <c r="H42" s="4" t="n">
-        <v>14.09020174193498</v>
-      </c>
-      <c r="I42" s="4" t="n">
-        <v>-2.477460092631667</v>
-      </c>
-      <c r="J42" s="4" t="n">
-        <v>0.8899093503979778</v>
-      </c>
-      <c r="K42" s="4" t="n">
-        <v>-21.3342699248855</v>
-      </c>
-      <c r="L42" s="4" t="n">
-        <v>-16.29693961745653</v>
-      </c>
-      <c r="M42" s="4" t="n">
-        <v>3.792266280066008</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="4" t="inlineStr">
-        <is>
-          <t>BAC</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="C43" s="4" t="inlineStr"/>
-      <c r="D43" s="4" t="inlineStr">
-        <is>
-          <t>TREND_REVERSAL</t>
-        </is>
-      </c>
-      <c r="E43" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="4" t="n">
-        <v>53.31579971313477</v>
-      </c>
-      <c r="H43" s="4" t="n">
-        <v>34.52075324683798</v>
-      </c>
-      <c r="I43" s="4" t="n">
-        <v>-0.07658693710009812</v>
-      </c>
-      <c r="J43" s="4" t="n">
-        <v>0.570956447196811</v>
-      </c>
-      <c r="K43" s="4" t="n">
-        <v>-4.491575039398032</v>
-      </c>
-      <c r="L43" s="4" t="n">
-        <v>9.415452959293086</v>
-      </c>
-      <c r="M43" s="4" t="n">
-        <v>2.069207007776027</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="inlineStr">
-        <is>
-          <t>ORCL</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="C44" s="4" t="inlineStr"/>
-      <c r="D44" s="4" t="inlineStr">
-        <is>
-          <t>TREND_REVERSAL</t>
-        </is>
-      </c>
-      <c r="E44" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="4" t="n">
-        <v>164.5005950927734</v>
-      </c>
-      <c r="H44" s="4" t="n">
-        <v>24.97812616299454</v>
-      </c>
-      <c r="I44" s="4" t="n">
-        <v>-1.570779910437686</v>
-      </c>
-      <c r="J44" s="4" t="n">
-        <v>0.8358540556313078</v>
-      </c>
-      <c r="K44" s="4" t="n">
-        <v>-16.80806191681786</v>
-      </c>
-      <c r="L44" s="4" t="n">
-        <v>-24.79009604301284</v>
-      </c>
-      <c r="M44" s="4" t="n">
-        <v>5.150218888955601</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="4" t="inlineStr">
-        <is>
-          <t>ADBE</t>
-        </is>
-      </c>
-      <c r="B45" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="C45" s="4" t="inlineStr"/>
-      <c r="D45" s="4" t="inlineStr">
-        <is>
-          <t>TREND_REVERSAL</t>
-        </is>
-      </c>
-      <c r="E45" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4" t="n">
-        <v>292.9599914550781</v>
-      </c>
-      <c r="H45" s="4" t="n">
-        <v>23.25457753868859</v>
-      </c>
-      <c r="I45" s="4" t="n">
-        <v>-1.011588947967322</v>
-      </c>
-      <c r="J45" s="4" t="n">
-        <v>0.7903073259690798</v>
-      </c>
-      <c r="K45" s="4" t="n">
-        <v>-17.72414408413439</v>
-      </c>
-      <c r="L45" s="4" t="n">
-        <v>-17.77416774834913</v>
-      </c>
-      <c r="M45" s="4" t="n">
-        <v>2.949938637302416</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="inlineStr">
-        <is>
-          <t>ABT</t>
-        </is>
-      </c>
-      <c r="B46" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="C46" s="4" t="inlineStr"/>
-      <c r="D46" s="4" t="inlineStr">
-        <is>
-          <t>TREND_REVERSAL</t>
-        </is>
-      </c>
-      <c r="E46" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="4" t="n">
-        <v>109.1949996948242</v>
-      </c>
-      <c r="H46" s="4" t="n">
-        <v>19.61020292180658</v>
-      </c>
-      <c r="I46" s="4" t="n">
-        <v>-1.385836471787121</v>
-      </c>
-      <c r="J46" s="4" t="n">
-        <v>1.009518046879147</v>
-      </c>
-      <c r="K46" s="4" t="n">
-        <v>-13.83410983343456</v>
-      </c>
-      <c r="L46" s="4" t="n">
-        <v>-14.67622439695967</v>
-      </c>
-      <c r="M46" s="4" t="n">
-        <v>3.140257238817475</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="4" t="inlineStr">
-        <is>
-          <t>NOW</t>
-        </is>
-      </c>
-      <c r="B47" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="C47" s="4" t="inlineStr"/>
-      <c r="D47" s="4" t="inlineStr">
-        <is>
-          <t>TREND_REVERSAL</t>
-        </is>
-      </c>
-      <c r="E47" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="4" t="n">
-        <v>116.1949996948242</v>
-      </c>
-      <c r="H47" s="4" t="n">
-        <v>24.06562100727825</v>
-      </c>
-      <c r="I47" s="4" t="n">
-        <v>-0.7947043574469754</v>
-      </c>
-      <c r="J47" s="4" t="n">
-        <v>1.402437123733855</v>
-      </c>
-      <c r="K47" s="4" t="n">
-        <v>-25.57914278580308</v>
-      </c>
-      <c r="L47" s="4" t="n">
-        <v>-35.03527544053215</v>
-      </c>
-      <c r="M47" s="4" t="n">
-        <v>4.716212252136132</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="inlineStr">
-        <is>
-          <t>ISRG</t>
-        </is>
-      </c>
-      <c r="B48" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="C48" s="4" t="inlineStr"/>
-      <c r="D48" s="4" t="inlineStr">
-        <is>
-          <t>TREND_REVERSAL</t>
-        </is>
-      </c>
-      <c r="E48" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="4" t="n">
-        <v>504.6600036621094</v>
-      </c>
-      <c r="H48" s="4" t="n">
-        <v>7.270063966716464</v>
-      </c>
-      <c r="I48" s="4" t="n">
-        <v>-4.6022522343867</v>
-      </c>
-      <c r="J48" s="4" t="n">
-        <v>0.4669948134872516</v>
-      </c>
-      <c r="K48" s="4" t="n">
-        <v>-12.32352068983881</v>
-      </c>
-      <c r="L48" s="4" t="n">
-        <v>-2.260579267396225</v>
-      </c>
-      <c r="M48" s="4" t="n">
-        <v>3.011574438163263</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="inlineStr">
-        <is>
-          <t>QCOM</t>
-        </is>
-      </c>
-      <c r="B49" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="C49" s="4" t="inlineStr"/>
-      <c r="D49" s="4" t="inlineStr">
-        <is>
-          <t>TREND_REVERSAL</t>
-        </is>
-      </c>
-      <c r="E49" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="4" t="n">
-        <v>151.8200073242188</v>
-      </c>
-      <c r="H49" s="4" t="n">
-        <v>11.16097437143071</v>
-      </c>
-      <c r="I49" s="4" t="n">
-        <v>-1.167590124275962</v>
-      </c>
-      <c r="J49" s="4" t="n">
-        <v>0.5023575381502798</v>
-      </c>
-      <c r="K49" s="4" t="n">
-        <v>-12.67171680630811</v>
-      </c>
-      <c r="L49" s="4" t="n">
-        <v>-4.818182303237887</v>
-      </c>
-      <c r="M49" s="4" t="n">
-        <v>2.622699185667668</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="inlineStr">
-        <is>
-          <t>INTU</t>
-        </is>
-      </c>
-      <c r="B50" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="C50" s="4" t="inlineStr"/>
-      <c r="D50" s="4" t="inlineStr">
-        <is>
-          <t>TREND_REVERSAL</t>
-        </is>
-      </c>
-      <c r="E50" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="4" t="n">
-        <v>497.2200012207031</v>
-      </c>
-      <c r="H50" s="4" t="n">
-        <v>17.14372991581473</v>
-      </c>
-      <c r="I50" s="4" t="n">
-        <v>-6.133848627418487</v>
-      </c>
-      <c r="J50" s="4" t="n">
-        <v>0.8814345763573946</v>
-      </c>
-      <c r="K50" s="4" t="n">
-        <v>-26.23000677846436</v>
-      </c>
-      <c r="L50" s="4" t="n">
-        <v>-26.70073014074518</v>
-      </c>
-      <c r="M50" s="4" t="n">
-        <v>4.605559466353167</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="4" t="inlineStr">
-        <is>
-          <t>BKNG</t>
-        </is>
-      </c>
-      <c r="B51" s="7" t="inlineStr">
-        <is>
-          <t>BEARISH</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="inlineStr"/>
-      <c r="D51" s="4" t="inlineStr">
-        <is>
-          <t>TREND_REVERSAL</t>
-        </is>
-      </c>
-      <c r="E51" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="4" t="n">
-        <v>5006.97021484375</v>
-      </c>
-      <c r="H51" s="4" t="n">
-        <v>24.09712242969798</v>
-      </c>
-      <c r="I51" s="4" t="n">
-        <v>-24.98777535787011</v>
-      </c>
-      <c r="J51" s="4" t="n">
-        <v>0.9387210398256316</v>
-      </c>
-      <c r="K51" s="4" t="n">
-        <v>-7.934311317156495</v>
-      </c>
-      <c r="L51" s="4" t="n">
-        <v>-5.595624630135161</v>
-      </c>
-      <c r="M51" s="4" t="n">
-        <v>2.63762186990304</v>
+        <v>2.072542313363444</v>
       </c>
     </row>
   </sheetData>
@@ -2957,7 +2126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3035,7 +2204,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
@@ -3045,42 +2214,42 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>PULLBACK_SUPPORT, RS_LEADER</t>
+          <t>RS_LEADER</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr"/>
       <c r="E2" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>374.6849975585938</v>
+        <v>338.2330017089844</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>50.04134076457417</v>
+        <v>61.2735244125528</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>-0.638454129071321</v>
+        <v>0.1570527391555627</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.5141743198544929</v>
+        <v>0.8720755402638948</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>7.459009192996623</v>
+        <v>6.595214173956387</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.9208785482642337</v>
+        <v>44.41082119392509</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.974077904400397</v>
+        <v>2.446009980107249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -3090,7 +2259,7 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>RS_LEADER</t>
+          <t>PULLBACK_SUPPORT</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr"/>
@@ -3101,31 +2270,31 @@
         <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>338.0400085449219</v>
+        <v>239.3000030517578</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>60.99883529943013</v>
+        <v>40.34877960673442</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.1447363602682463</v>
+        <v>0.03482195344377326</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.6542468895266791</v>
+        <v>1.016113440112521</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.570610030363921</v>
+        <v>2.207408736347927</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>44.32901611722072</v>
+        <v>7.897459507063534</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.447406451511392</v>
+        <v>2.342695946792546</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>AMZN</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -3135,7 +2304,7 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>PULLBACK_SUPPORT</t>
+          <t>RS_LEADER</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr"/>
@@ -3146,31 +2315,31 @@
         <v>0</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>238.9700012207031</v>
+        <v>716.5</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>40.03317945550105</v>
+        <v>64.16198438722431</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.01376200169383868</v>
+        <v>10.41022731197927</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.7691548262895774</v>
+        <v>1.248180421994544</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>2.101494414937344</v>
+        <v>7.079352229975754</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>7.749467319683778</v>
+        <v>5.276925142563941</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.342045185805965</v>
+        <v>3.134882693727569</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
@@ -3180,7 +2349,7 @@
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>RS_LEADER</t>
+          <t>PULLBACK_SUPPORT</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr"/>
@@ -3191,25 +2360,25 @@
         <v>0</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>716.77001953125</v>
+        <v>374.6000061035156</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>64.23942838481167</v>
+        <v>49.96317330904813</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>10.42745932631945</v>
+        <v>-0.6438780899055114</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.013711631560223</v>
+        <v>0.6073763513052883</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.157313714600599</v>
+        <v>7.397254540970465</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.316390292829531</v>
+        <v>0.8981018330839937</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.133701729774811</v>
+        <v>1.974525794818974</v>
       </c>
     </row>
     <row r="6">
@@ -3236,25 +2405,25 @@
         <v>0</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>119.245002746582</v>
+        <v>119.1399993896484</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>66.15279584860824</v>
+        <v>65.90751850482879</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>-0.2160404981846531</v>
+        <v>-0.2227415680485463</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.2632466343083429</v>
+        <v>0.4238171942686033</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>5.603188600897147</v>
+        <v>5.471884099628355</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>16.05704278938381</v>
+        <v>15.955439029364</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>2.098919083139682</v>
+        <v>2.100768953466951</v>
       </c>
     </row>
     <row r="7">
@@ -3281,25 +2450,25 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>110.4000015258789</v>
+        <v>110.3000030517578</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>49.6434521714493</v>
+        <v>49.36570364266976</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>-0.5024822804229612</v>
+        <v>-0.5088639496688867</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>0.9781831883715665</v>
+        <v>1.08563911030361</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>3.453753115797942</v>
+        <v>3.321696703013921</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>27.37877962896279</v>
+        <v>27.26413634508197</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>2.241201744931752</v>
+        <v>2.250681205802798</v>
       </c>
     </row>
     <row r="8">
@@ -3326,31 +2495,31 @@
         <v>0</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>236.7100067138672</v>
+        <v>236.7299957275391</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>70.36677801592741</v>
+        <v>70.38386453636789</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1.420722224103823</v>
+        <v>1.421997870671456</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.8676710417427262</v>
+        <v>1.012912650782181</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>9.100119191539035</v>
+        <v>9.072397859264836</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>34.64549232515965</v>
+        <v>34.65678593143525</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>5.279513976037227</v>
+        <v>5.279068184295781</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>TMO</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -3360,7 +2529,7 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>RS_LEADER</t>
+          <t>OVERSOLD_BOUNCE</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr"/>
@@ -3371,70 +2540,25 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>456.2200012207031</v>
+        <v>578.0499877929688</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>64.74018553623648</v>
+        <v>32.80817476328268</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.8496834427112674</v>
+        <v>-5.719354266081249</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>0.777709944376611</v>
+        <v>1.094676224378179</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>5.566546592429877</v>
+        <v>-1.708060343903883</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>1.415548198619461</v>
+        <v>16.09262995787316</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>1.402322722207638</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>CAT</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>BULLISH</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>RS_LEADER</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr"/>
-      <c r="E10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>657.7750244140625</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>65.58567961631309</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.068741664091611</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.901838137079473</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>13.66024908031127</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>41.80170976630377</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>2.941674112791638</v>
+        <v>2.90212003708191</v>
       </c>
     </row>
   </sheetData>
@@ -3515,12 +2639,12 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>$83.44</t>
+          <t>$83.50</t>
         </is>
       </c>
       <c r="D2" s="5" t="inlineStr">
         <is>
-          <t>+1.60%</t>
+          <t>+1.67%</t>
         </is>
       </c>
     </row>
@@ -3537,12 +2661,12 @@
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>$51.06</t>
+          <t>$51.03</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>+1.08%</t>
+          <t>+1.03%</t>
         </is>
       </c>
     </row>
@@ -3559,100 +2683,100 @@
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>$154.71</t>
+          <t>$154.79</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>+0.58%</t>
+          <t>+0.63%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>XLY</t>
+          <t>XLRE</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>$121.29</t>
+          <t>$41.42</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>+0.08%</t>
+          <t>+0.13%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>XLRE</t>
+          <t>XLY</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>$41.40</t>
+          <t>$121.20</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>+0.07%</t>
+          <t>+0.01%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>XLF</t>
+          <t>XLU</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>$53.44</t>
+          <t>$43.26</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>-0.20%</t>
+          <t>-0.16%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>XLU</t>
+          <t>XLF</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>$43.22</t>
+          <t>$53.46</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>-0.24%</t>
+          <t>-0.17%</t>
         </is>
       </c>
     </row>
@@ -3669,12 +2793,12 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>$165.43</t>
+          <t>$165.41</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t>-0.26%</t>
+          <t>-0.27%</t>
         </is>
       </c>
     </row>
@@ -3691,12 +2815,12 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>$691.76</t>
+          <t>$691.92</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>-0.33%</t>
+          <t>-0.31%</t>
         </is>
       </c>
     </row>
@@ -3713,12 +2837,12 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>$172.46</t>
+          <t>$172.43</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t>-1.03%</t>
+          <t>-1.04%</t>
         </is>
       </c>
     </row>
@@ -3735,7 +2859,7 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>$621.86</t>
+          <t>$621.87</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -3757,12 +2881,12 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>$49.26</t>
+          <t>$49.29</t>
         </is>
       </c>
       <c r="D13" s="7" t="inlineStr">
         <is>
-          <t>-1.47%</t>
+          <t>-1.42%</t>
         </is>
       </c>
     </row>
@@ -3779,12 +2903,12 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>$124.81</t>
+          <t>$124.75</t>
         </is>
       </c>
       <c r="D14" s="7" t="inlineStr">
         <is>
-          <t>-1.52%</t>
+          <t>-1.57%</t>
         </is>
       </c>
     </row>
@@ -3801,12 +2925,12 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>$143.91</t>
+          <t>$143.87</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
         <is>
-          <t>-2.01%</t>
+          <t>-2.04%</t>
         </is>
       </c>
     </row>
@@ -3821,7 +2945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3845,14 +2969,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>DECISION HELPER - Portfolio: $166,600</t>
+          <t>DECISION HELPER - Portfolio: $166,600 | Margin Power: $333,200</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Position Rules:</t>
+          <t>LONG Rules:</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -3862,179 +2986,98 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Standard (10%): $16,660</t>
+          <t>Std (10%): $16,660</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Small (5%): $8,330</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="inlineStr">
+          <t>Min Buy: $5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="10" t="inlineStr">
+        <is>
+          <t>SHORT Rules:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Max (25%): $41,650</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Std (10%): $16,660</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Min Short: $10</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>📈 LONG CANDIDATES (BUY)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="inlineStr">
         <is>
           <t>Ticker</t>
         </is>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B6" s="9" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C6" s="9" t="inlineStr">
         <is>
           <t>Conviction</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>Price</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="E6" s="9" t="inlineStr">
         <is>
           <t>Shares</t>
         </is>
       </c>
-      <c r="F4" s="9" t="inlineStr">
+      <c r="F6" s="9" t="inlineStr">
         <is>
           <t>Position $</t>
         </is>
       </c>
-      <c r="G4" s="9" t="inlineStr">
+      <c r="G6" s="9" t="inlineStr">
         <is>
           <t>Stop Loss</t>
         </is>
       </c>
-      <c r="H4" s="9" t="inlineStr">
+      <c r="H6" s="9" t="inlineStr">
         <is>
           <t>Risk $</t>
         </is>
       </c>
-      <c r="I4" s="9" t="inlineStr">
+      <c r="I6" s="9" t="inlineStr">
         <is>
           <t>RSI</t>
         </is>
       </c>
-      <c r="J4" s="9" t="inlineStr">
+      <c r="J6" s="9" t="inlineStr">
         <is>
           <t>RS vs SPY</t>
         </is>
       </c>
-      <c r="K4" s="9" t="inlineStr">
+      <c r="K6" s="9" t="inlineStr">
         <is>
           <t>Reasons</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>HD</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="C5" s="10" t="inlineStr">
-        <is>
-          <t>STRONG</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>$374.68</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>44</v>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>$16,660.00</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>$359.89</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
-          <t>$650.90</t>
-        </is>
-      </c>
-      <c r="I5" s="4" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="J5" s="4" t="inlineStr">
-        <is>
-          <t>7.5</t>
-        </is>
-      </c>
-      <c r="K5" s="4" t="inlineStr">
-        <is>
-          <t>Multi-setup, RSI sweet spot, RS leader</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>AMZN</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>3.5</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>MODERATE</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>$238.97</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>48</v>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>$11,662.00</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>$227.78</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>$537.29</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
-      </c>
-      <c r="K6" s="4" t="inlineStr">
-        <is>
-          <t>RSI sweet spot, Healthy trend</t>
         </is>
       </c>
     </row>
@@ -4044,37 +3087,37 @@
           <t>META</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="C7" s="11" t="inlineStr">
-        <is>
-          <t>MODERATE</t>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>STRONG</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>$716.77</t>
+          <t>$716.50</t>
         </is>
       </c>
       <c r="E7" s="4" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>$11,662.00</t>
+          <t>$16,660.00</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>$671.85</t>
+          <t>$671.58</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
-          <t>$718.77</t>
+          <t>$1,033.23</t>
         </is>
       </c>
       <c r="I7" s="4" t="inlineStr">
@@ -4084,93 +3127,93 @@
       </c>
       <c r="J7" s="4" t="inlineStr">
         <is>
-          <t>7.2</t>
+          <t>7.1</t>
         </is>
       </c>
       <c r="K7" s="4" t="inlineStr">
         <is>
-          <t>RS leader, Healthy trend</t>
+          <t>Vol confirm, RS leader, Healthy trend</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>LIN</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="C8" s="11" t="inlineStr">
-        <is>
-          <t>MODERATE</t>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="C8" s="12" t="inlineStr">
+        <is>
+          <t>STRONG</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>$456.22</t>
+          <t>$374.60</t>
         </is>
       </c>
       <c r="E8" s="4" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>$11,662.00</t>
+          <t>$16,660.00</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>$443.42</t>
+          <t>$359.81</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>$319.88</t>
+          <t>$650.90</t>
         </is>
       </c>
       <c r="I8" s="4" t="inlineStr">
         <is>
-          <t>64.7</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="J8" s="4" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>7.4</t>
         </is>
       </c>
       <c r="K8" s="4" t="inlineStr">
         <is>
-          <t>RS leader, Healthy trend</t>
+          <t>RSI sweet spot, RS leader, Healthy trend</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="C9" s="11" t="inlineStr">
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="C9" s="13" t="inlineStr">
         <is>
           <t>MODERATE</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>$119.25</t>
+          <t>$239.30</t>
         </is>
       </c>
       <c r="E9" s="4" t="n">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -4179,34 +3222,34 @@
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>$114.24</t>
+          <t>$228.09</t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
         <is>
-          <t>$485.55</t>
+          <t>$538.18</t>
         </is>
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t>66.2</t>
+          <t>40.3</t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
         <is>
-          <t>5.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="K9" s="4" t="inlineStr">
         <is>
-          <t>RS leader</t>
+          <t>RSI sweet spot, Healthy trend</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
@@ -4214,18 +3257,18 @@
           <t>2.0</t>
         </is>
       </c>
-      <c r="C10" s="11" t="inlineStr">
+      <c r="C10" s="13" t="inlineStr">
         <is>
           <t>MODERATE</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>$110.40</t>
+          <t>$119.14</t>
         </is>
       </c>
       <c r="E10" s="4" t="n">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
@@ -4234,89 +3277,89 @@
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>$105.45</t>
+          <t>$114.13</t>
         </is>
       </c>
       <c r="H10" s="4" t="inlineStr">
         <is>
-          <t>$519.60</t>
+          <t>$485.55</t>
         </is>
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>65.9</t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
         <is>
-          <t>3.5</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="K10" s="4" t="inlineStr">
         <is>
-          <t>RSI sweet spot, RS leader, Extended</t>
+          <t>RS leader</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>GOOGL</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>WEAK</t>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C11" s="13" t="inlineStr">
+        <is>
+          <t>MODERATE</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>$338.04</t>
+          <t>$110.30</t>
         </is>
       </c>
       <c r="E11" s="4" t="n">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>$8,330.00</t>
+          <t>$11,662.00</t>
         </is>
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>$321.49</t>
+          <t>$105.34</t>
         </is>
       </c>
       <c r="H11" s="4" t="inlineStr">
         <is>
-          <t>$397.11</t>
+          <t>$521.33</t>
         </is>
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>49.4</t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
         <is>
-          <t>6.6</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="K11" s="4" t="inlineStr">
         <is>
-          <t>RS leader, Extended</t>
+          <t>RSI sweet spot, RS leader, Extended</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -4331,11 +3374,11 @@
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>$657.78</t>
+          <t>$338.23</t>
         </is>
       </c>
       <c r="E12" s="4" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
@@ -4344,22 +3387,22 @@
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>$619.08</t>
+          <t>$321.69</t>
         </is>
       </c>
       <c r="H12" s="4" t="inlineStr">
         <is>
-          <t>$464.39</t>
+          <t>$397.11</t>
         </is>
       </c>
       <c r="I12" s="4" t="inlineStr">
         <is>
-          <t>65.6</t>
+          <t>61.3</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="K12" s="4" t="inlineStr">
@@ -4371,60 +3414,1002 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>WEAK</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>$578.05</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="F13" s="4" t="inlineStr">
+        <is>
+          <t>$8,330.00</t>
+        </is>
+      </c>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>$544.50</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr">
+        <is>
+          <t>$469.72</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>32.8</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>-1.7</t>
+        </is>
+      </c>
+      <c r="K13" s="4" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
           <t>AMD</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B14" s="7" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C14" s="4" t="inlineStr">
         <is>
           <t>WEAK</t>
         </is>
       </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>$236.71</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="n">
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>$236.73</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="n">
         <v>35</v>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F14" s="4" t="inlineStr">
         <is>
           <t>$8,330.00</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>$211.72</t>
-        </is>
-      </c>
-      <c r="H13" s="4" t="inlineStr">
+      <c r="G14" s="4" t="inlineStr">
+        <is>
+          <t>$211.74</t>
+        </is>
+      </c>
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t>$874.80</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
+      <c r="I14" s="4" t="inlineStr">
         <is>
           <t>70.4</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="K13" s="4" t="inlineStr">
+      <c r="K14" s="4" t="inlineStr">
         <is>
           <t>Overbought, RS leader, Extended</t>
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="14" t="inlineStr">
+        <is>
+          <t>📉 SHORT CANDIDATES (SELL SHORT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="15" t="inlineStr">
+        <is>
+          <t>Ticker</t>
+        </is>
+      </c>
+      <c r="B18" s="15" t="inlineStr">
+        <is>
+          <t>Score</t>
+        </is>
+      </c>
+      <c r="C18" s="15" t="inlineStr">
+        <is>
+          <t>Conviction</t>
+        </is>
+      </c>
+      <c r="D18" s="15" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="E18" s="15" t="inlineStr">
+        <is>
+          <t>Shares</t>
+        </is>
+      </c>
+      <c r="F18" s="15" t="inlineStr">
+        <is>
+          <t>Position $</t>
+        </is>
+      </c>
+      <c r="G18" s="15" t="inlineStr">
+        <is>
+          <t>Stop (Cover)</t>
+        </is>
+      </c>
+      <c r="H18" s="15" t="inlineStr">
+        <is>
+          <t>Risk $</t>
+        </is>
+      </c>
+      <c r="I18" s="15" t="inlineStr">
+        <is>
+          <t>RSI</t>
+        </is>
+      </c>
+      <c r="J18" s="15" t="inlineStr">
+        <is>
+          <t>RS vs SPY</t>
+        </is>
+      </c>
+      <c r="K18" s="15" t="inlineStr">
+        <is>
+          <t>Reasons</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="C19" s="15" t="inlineStr">
+        <is>
+          <t>STRONG</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>$430.29</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="n">
+        <v>38</v>
+      </c>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>$16,660.00</t>
+        </is>
+      </c>
+      <c r="G19" s="4" t="inlineStr">
+        <is>
+          <t>$459.58</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>$1,113.02</t>
+        </is>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
+        <is>
+          <t>-12.5</t>
+        </is>
+      </c>
+      <c r="K19" s="4" t="inlineStr">
+        <is>
+          <t>Vol confirm, RS weak, Below 200 SMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>MODERATE</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>$430.41</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>$11,662.00</t>
+        </is>
+      </c>
+      <c r="G20" s="4" t="inlineStr">
+        <is>
+          <t>$459.12</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>$775.29</t>
+        </is>
+      </c>
+      <c r="I20" s="4" t="inlineStr">
+        <is>
+          <t>43.5</t>
+        </is>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>-5.8</t>
+        </is>
+      </c>
+      <c r="K20" s="4" t="inlineStr">
+        <is>
+          <t>Vol confirm, RS weak</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>MODERATE</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>$287.05</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>40</v>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>$11,662.00</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>$313.95</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>$1,076.17</t>
+        </is>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>29.7</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>-14.5</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr">
+        <is>
+          <t>Multi-bearish, Oversold-risky, RS weak</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>BRK-B</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>MODERATE</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>$480.88</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>$11,662.00</t>
+        </is>
+      </c>
+      <c r="G22" s="4" t="inlineStr">
+        <is>
+          <t>$492.79</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr">
+        <is>
+          <t>$285.97</t>
+        </is>
+      </c>
+      <c r="I22" s="4" t="inlineStr">
+        <is>
+          <t>29.6</t>
+        </is>
+      </c>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>-5.8</t>
+        </is>
+      </c>
+      <c r="K22" s="4" t="inlineStr">
+        <is>
+          <t>Multi-bearish, Oversold-risky, RS weak</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>MODERATE</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>$321.93</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>$11,662.00</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>$336.60</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>$528.12</t>
+        </is>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>22.9</t>
+        </is>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>-9.7</t>
+        </is>
+      </c>
+      <c r="K23" s="4" t="inlineStr">
+        <is>
+          <t>Oversold-risky, RS weak, Below 200 SMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>MODERATE</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>$538.73</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>21</v>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>$11,662.00</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>$564.46</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>$540.32</t>
+        </is>
+      </c>
+      <c r="I24" s="4" t="inlineStr">
+        <is>
+          <t>32.1</t>
+        </is>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
+        <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="K24" s="4" t="inlineStr">
+        <is>
+          <t>RS weak</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>CRM</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>MODERATE</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>$212.31</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>$11,662.00</t>
+        </is>
+      </c>
+      <c r="G25" s="4" t="inlineStr">
+        <is>
+          <t>$228.40</t>
+        </is>
+      </c>
+      <c r="H25" s="4" t="inlineStr">
+        <is>
+          <t>$869.01</t>
+        </is>
+      </c>
+      <c r="I25" s="4" t="inlineStr">
+        <is>
+          <t>14.1</t>
+        </is>
+      </c>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>-21.3</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="inlineStr">
+        <is>
+          <t>Oversold-risky, RS weak, Below 200 SMA</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>MODERATE</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>$53.23</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="n">
+        <v>219</v>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>$11,662.00</t>
+        </is>
+      </c>
+      <c r="G26" s="4" t="inlineStr">
+        <is>
+          <t>$55.44</t>
+        </is>
+      </c>
+      <c r="H26" s="4" t="inlineStr">
+        <is>
+          <t>$483.21</t>
+        </is>
+      </c>
+      <c r="I26" s="4" t="inlineStr">
+        <is>
+          <t>33.8</t>
+        </is>
+      </c>
+      <c r="J26" s="4" t="inlineStr">
+        <is>
+          <t>-4.7</t>
+        </is>
+      </c>
+      <c r="K26" s="4" t="inlineStr">
+        <is>
+          <t>RS weak</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WEAK</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>$177.00</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>$8,330.00</t>
+        </is>
+      </c>
+      <c r="G27" s="4" t="inlineStr">
+        <is>
+          <t>$183.15</t>
+        </is>
+      </c>
+      <c r="H27" s="4" t="inlineStr">
+        <is>
+          <t>$289.18</t>
+        </is>
+      </c>
+      <c r="I27" s="4" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>14.7</t>
+        </is>
+      </c>
+      <c r="K27" s="4" t="inlineStr">
+        <is>
+          <t>Has bullish, Overbought, Vol confirm</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>WEAK</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>$74.85</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="n">
+        <v>111</v>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>$8,330.00</t>
+        </is>
+      </c>
+      <c r="G28" s="4" t="inlineStr">
+        <is>
+          <t>$77.05</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr">
+        <is>
+          <t>$244.20</t>
+        </is>
+      </c>
+      <c r="I28" s="4" t="inlineStr">
+        <is>
+          <t>76.3</t>
+        </is>
+      </c>
+      <c r="J28" s="4" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="K28" s="4" t="inlineStr">
+        <is>
+          <t>Has bullish, Overbought</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>WEAK</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>$153.63</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>$8,330.00</t>
+        </is>
+      </c>
+      <c r="G29" s="4" t="inlineStr">
+        <is>
+          <t>$159.15</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>$298.27</t>
+        </is>
+      </c>
+      <c r="I29" s="4" t="inlineStr">
+        <is>
+          <t>82.2</t>
+        </is>
+      </c>
+      <c r="J29" s="4" t="inlineStr">
+        <is>
+          <t>5.6</t>
+        </is>
+      </c>
+      <c r="K29" s="4" t="inlineStr">
+        <is>
+          <t>Has bullish, Overbought</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>WEAK</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>$1,037.99</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>$8,330.00</t>
+        </is>
+      </c>
+      <c r="G30" s="4" t="inlineStr">
+        <is>
+          <t>$1,099.15</t>
+        </is>
+      </c>
+      <c r="H30" s="4" t="inlineStr">
+        <is>
+          <t>$489.30</t>
+        </is>
+      </c>
+      <c r="I30" s="4" t="inlineStr">
+        <is>
+          <t>43.5</t>
+        </is>
+      </c>
+      <c r="J30" s="4" t="inlineStr">
+        <is>
+          <t>-4.9</t>
+        </is>
+      </c>
+      <c r="K30" s="4" t="inlineStr">
+        <is>
+          <t>RS weak</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>WEAK</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>$306.11</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>$8,330.00</t>
+        </is>
+      </c>
+      <c r="G31" s="4" t="inlineStr">
+        <is>
+          <t>$319.62</t>
+        </is>
+      </c>
+      <c r="H31" s="4" t="inlineStr">
+        <is>
+          <t>$364.88</t>
+        </is>
+      </c>
+      <c r="I31" s="4" t="inlineStr">
+        <is>
+          <t>28.8</t>
+        </is>
+      </c>
+      <c r="J31" s="4" t="inlineStr">
+        <is>
+          <t>-6.0</t>
+        </is>
+      </c>
+      <c r="K31" s="4" t="inlineStr">
+        <is>
+          <t>Oversold-risky, RS weak</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>WEAK</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>$141.61</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>58</v>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>$8,330.00</t>
+        </is>
+      </c>
+      <c r="G32" s="4" t="inlineStr">
+        <is>
+          <t>$147.18</t>
+        </is>
+      </c>
+      <c r="H32" s="4" t="inlineStr">
+        <is>
+          <t>$322.98</t>
+        </is>
+      </c>
+      <c r="I32" s="4" t="inlineStr">
+        <is>
+          <t>91.3</t>
+        </is>
+      </c>
+      <c r="J32" s="4" t="inlineStr">
+        <is>
+          <t>16.2</t>
+        </is>
+      </c>
+      <c r="K32" s="4" t="inlineStr">
+        <is>
+          <t>Has bullish, Overbought</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>WEAK</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>$227.24</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>$8,330.00</t>
+        </is>
+      </c>
+      <c r="G33" s="4" t="inlineStr">
+        <is>
+          <t>$235.75</t>
+        </is>
+      </c>
+      <c r="H33" s="4" t="inlineStr">
+        <is>
+          <t>$306.46</t>
+        </is>
+      </c>
+      <c r="I33" s="4" t="inlineStr">
+        <is>
+          <t>92.4</t>
+        </is>
+      </c>
+      <c r="J33" s="4" t="inlineStr">
+        <is>
+          <t>8.3</t>
+        </is>
+      </c>
+      <c r="K33" s="4" t="inlineStr">
+        <is>
+          <t>Has bullish, Overbought</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A17:K17"/>
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4437,7 +4422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4446,138 +4431,125 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="12" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
-    <col width="10" customWidth="1" min="14" max="14"/>
-    <col width="25" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="9" customWidth="1" min="8" max="8"/>
+    <col width="9" customWidth="1" min="9" max="9"/>
+    <col width="11" customWidth="1" min="10" max="10"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="14" max="14"/>
+    <col width="9" customWidth="1" min="15" max="15"/>
+    <col width="22" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>TRADE JOURNAL - Track Your Entries &amp; Exits</t>
+          <t>TRADE JOURNAL - Track Your Entries &amp; Exits (LONG &amp; SHORT)</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>Instructions: Fill in Entry columns when you buy. Fill in Exit columns when you sell. P&amp;L and Hold Days calculate automatically.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A2" s="16" t="inlineStr">
+        <is>
+          <t>Instructions: Fill in columns A-I when entering. Fill in J-L when exiting. P&amp;L auto-calculates based on Direction (LONG/SHORT).</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="17" t="inlineStr">
+        <is>
+          <t>Direction: LONG = buy then sell | SHORT = sell then buy to cover. For shorts, profit = entry - exit.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Ticker</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Direction</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Setup</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Entry Date</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>Entry Price</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>Shares</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>Position $</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>Stop Loss</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Stop</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>Target</t>
         </is>
       </c>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>Exit Date</t>
         </is>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="K5" s="3" t="inlineStr">
         <is>
           <t>Exit Price</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>Exit Reason</t>
         </is>
       </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>P&amp;L $</t>
         </is>
       </c>
-      <c r="M4" s="3" t="inlineStr">
+      <c r="N5" s="3" t="inlineStr">
         <is>
           <t>P&amp;L %</t>
         </is>
       </c>
-      <c r="N4" s="3" t="inlineStr">
+      <c r="O5" s="3" t="inlineStr">
         <is>
           <t>Hold Days</t>
         </is>
       </c>
-      <c r="O4" s="3" t="inlineStr">
+      <c r="P5" s="3" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="4" t="n"/>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="4" t="n"/>
-      <c r="F5" s="4" t="n"/>
-      <c r="G5" s="4" t="n"/>
-      <c r="H5" s="4" t="n"/>
-      <c r="I5" s="4" t="n"/>
-      <c r="J5" s="4" t="n"/>
-      <c r="K5" s="4" t="n"/>
-      <c r="L5" s="4">
-        <f>IF(AND(J5&lt;&gt;"",D5&lt;&gt;"",E5&lt;&gt;""),(J5-D5)*E5,"")</f>
-        <v/>
-      </c>
-      <c r="M5" s="4">
-        <f>IF(AND(J5&lt;&gt;"",D5&lt;&gt;""),(J5-D5)/D5*100,"")</f>
-        <v/>
-      </c>
-      <c r="N5" s="4">
-        <f>IF(AND(I5&lt;&gt;"",C5&lt;&gt;""),I5-C5,"")</f>
-        <v/>
-      </c>
-      <c r="O5" s="4" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="n"/>
@@ -4591,19 +4563,20 @@
       <c r="I6" s="4" t="n"/>
       <c r="J6" s="4" t="n"/>
       <c r="K6" s="4" t="n"/>
-      <c r="L6" s="4">
-        <f>IF(AND(J6&lt;&gt;"",D6&lt;&gt;"",E6&lt;&gt;""),(J6-D6)*E6,"")</f>
-        <v/>
-      </c>
+      <c r="L6" s="4" t="n"/>
       <c r="M6" s="4">
-        <f>IF(AND(J6&lt;&gt;"",D6&lt;&gt;""),(J6-D6)/D6*100,"")</f>
+        <f>IF(AND(K6&lt;&gt;"",E6&lt;&gt;"",F6&lt;&gt;""),IF(B6="SHORT",(E6-K6)*F6,(K6-E6)*F6),"")</f>
         <v/>
       </c>
       <c r="N6" s="4">
-        <f>IF(AND(I6&lt;&gt;"",C6&lt;&gt;""),I6-C6,"")</f>
-        <v/>
-      </c>
-      <c r="O6" s="4" t="n"/>
+        <f>IF(AND(K6&lt;&gt;"",E6&lt;&gt;""),IF(B6="SHORT",(E6-K6)/E6*100,(K6-E6)/E6*100),"")</f>
+        <v/>
+      </c>
+      <c r="O6" s="4">
+        <f>IF(AND(J6&lt;&gt;"",D6&lt;&gt;""),J6-D6,"")</f>
+        <v/>
+      </c>
+      <c r="P6" s="4" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="n"/>
@@ -4617,19 +4590,20 @@
       <c r="I7" s="4" t="n"/>
       <c r="J7" s="4" t="n"/>
       <c r="K7" s="4" t="n"/>
-      <c r="L7" s="4">
-        <f>IF(AND(J7&lt;&gt;"",D7&lt;&gt;"",E7&lt;&gt;""),(J7-D7)*E7,"")</f>
-        <v/>
-      </c>
+      <c r="L7" s="4" t="n"/>
       <c r="M7" s="4">
-        <f>IF(AND(J7&lt;&gt;"",D7&lt;&gt;""),(J7-D7)/D7*100,"")</f>
+        <f>IF(AND(K7&lt;&gt;"",E7&lt;&gt;"",F7&lt;&gt;""),IF(B7="SHORT",(E7-K7)*F7,(K7-E7)*F7),"")</f>
         <v/>
       </c>
       <c r="N7" s="4">
-        <f>IF(AND(I7&lt;&gt;"",C7&lt;&gt;""),I7-C7,"")</f>
-        <v/>
-      </c>
-      <c r="O7" s="4" t="n"/>
+        <f>IF(AND(K7&lt;&gt;"",E7&lt;&gt;""),IF(B7="SHORT",(E7-K7)/E7*100,(K7-E7)/E7*100),"")</f>
+        <v/>
+      </c>
+      <c r="O7" s="4">
+        <f>IF(AND(J7&lt;&gt;"",D7&lt;&gt;""),J7-D7,"")</f>
+        <v/>
+      </c>
+      <c r="P7" s="4" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="n"/>
@@ -4643,19 +4617,20 @@
       <c r="I8" s="4" t="n"/>
       <c r="J8" s="4" t="n"/>
       <c r="K8" s="4" t="n"/>
-      <c r="L8" s="4">
-        <f>IF(AND(J8&lt;&gt;"",D8&lt;&gt;"",E8&lt;&gt;""),(J8-D8)*E8,"")</f>
-        <v/>
-      </c>
+      <c r="L8" s="4" t="n"/>
       <c r="M8" s="4">
-        <f>IF(AND(J8&lt;&gt;"",D8&lt;&gt;""),(J8-D8)/D8*100,"")</f>
+        <f>IF(AND(K8&lt;&gt;"",E8&lt;&gt;"",F8&lt;&gt;""),IF(B8="SHORT",(E8-K8)*F8,(K8-E8)*F8),"")</f>
         <v/>
       </c>
       <c r="N8" s="4">
-        <f>IF(AND(I8&lt;&gt;"",C8&lt;&gt;""),I8-C8,"")</f>
-        <v/>
-      </c>
-      <c r="O8" s="4" t="n"/>
+        <f>IF(AND(K8&lt;&gt;"",E8&lt;&gt;""),IF(B8="SHORT",(E8-K8)/E8*100,(K8-E8)/E8*100),"")</f>
+        <v/>
+      </c>
+      <c r="O8" s="4">
+        <f>IF(AND(J8&lt;&gt;"",D8&lt;&gt;""),J8-D8,"")</f>
+        <v/>
+      </c>
+      <c r="P8" s="4" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n"/>
@@ -4669,19 +4644,20 @@
       <c r="I9" s="4" t="n"/>
       <c r="J9" s="4" t="n"/>
       <c r="K9" s="4" t="n"/>
-      <c r="L9" s="4">
-        <f>IF(AND(J9&lt;&gt;"",D9&lt;&gt;"",E9&lt;&gt;""),(J9-D9)*E9,"")</f>
-        <v/>
-      </c>
+      <c r="L9" s="4" t="n"/>
       <c r="M9" s="4">
-        <f>IF(AND(J9&lt;&gt;"",D9&lt;&gt;""),(J9-D9)/D9*100,"")</f>
+        <f>IF(AND(K9&lt;&gt;"",E9&lt;&gt;"",F9&lt;&gt;""),IF(B9="SHORT",(E9-K9)*F9,(K9-E9)*F9),"")</f>
         <v/>
       </c>
       <c r="N9" s="4">
-        <f>IF(AND(I9&lt;&gt;"",C9&lt;&gt;""),I9-C9,"")</f>
-        <v/>
-      </c>
-      <c r="O9" s="4" t="n"/>
+        <f>IF(AND(K9&lt;&gt;"",E9&lt;&gt;""),IF(B9="SHORT",(E9-K9)/E9*100,(K9-E9)/E9*100),"")</f>
+        <v/>
+      </c>
+      <c r="O9" s="4">
+        <f>IF(AND(J9&lt;&gt;"",D9&lt;&gt;""),J9-D9,"")</f>
+        <v/>
+      </c>
+      <c r="P9" s="4" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="n"/>
@@ -4695,19 +4671,20 @@
       <c r="I10" s="4" t="n"/>
       <c r="J10" s="4" t="n"/>
       <c r="K10" s="4" t="n"/>
-      <c r="L10" s="4">
-        <f>IF(AND(J10&lt;&gt;"",D10&lt;&gt;"",E10&lt;&gt;""),(J10-D10)*E10,"")</f>
-        <v/>
-      </c>
+      <c r="L10" s="4" t="n"/>
       <c r="M10" s="4">
-        <f>IF(AND(J10&lt;&gt;"",D10&lt;&gt;""),(J10-D10)/D10*100,"")</f>
+        <f>IF(AND(K10&lt;&gt;"",E10&lt;&gt;"",F10&lt;&gt;""),IF(B10="SHORT",(E10-K10)*F10,(K10-E10)*F10),"")</f>
         <v/>
       </c>
       <c r="N10" s="4">
-        <f>IF(AND(I10&lt;&gt;"",C10&lt;&gt;""),I10-C10,"")</f>
-        <v/>
-      </c>
-      <c r="O10" s="4" t="n"/>
+        <f>IF(AND(K10&lt;&gt;"",E10&lt;&gt;""),IF(B10="SHORT",(E10-K10)/E10*100,(K10-E10)/E10*100),"")</f>
+        <v/>
+      </c>
+      <c r="O10" s="4">
+        <f>IF(AND(J10&lt;&gt;"",D10&lt;&gt;""),J10-D10,"")</f>
+        <v/>
+      </c>
+      <c r="P10" s="4" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n"/>
@@ -4721,19 +4698,20 @@
       <c r="I11" s="4" t="n"/>
       <c r="J11" s="4" t="n"/>
       <c r="K11" s="4" t="n"/>
-      <c r="L11" s="4">
-        <f>IF(AND(J11&lt;&gt;"",D11&lt;&gt;"",E11&lt;&gt;""),(J11-D11)*E11,"")</f>
-        <v/>
-      </c>
+      <c r="L11" s="4" t="n"/>
       <c r="M11" s="4">
-        <f>IF(AND(J11&lt;&gt;"",D11&lt;&gt;""),(J11-D11)/D11*100,"")</f>
+        <f>IF(AND(K11&lt;&gt;"",E11&lt;&gt;"",F11&lt;&gt;""),IF(B11="SHORT",(E11-K11)*F11,(K11-E11)*F11),"")</f>
         <v/>
       </c>
       <c r="N11" s="4">
-        <f>IF(AND(I11&lt;&gt;"",C11&lt;&gt;""),I11-C11,"")</f>
-        <v/>
-      </c>
-      <c r="O11" s="4" t="n"/>
+        <f>IF(AND(K11&lt;&gt;"",E11&lt;&gt;""),IF(B11="SHORT",(E11-K11)/E11*100,(K11-E11)/E11*100),"")</f>
+        <v/>
+      </c>
+      <c r="O11" s="4">
+        <f>IF(AND(J11&lt;&gt;"",D11&lt;&gt;""),J11-D11,"")</f>
+        <v/>
+      </c>
+      <c r="P11" s="4" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="n"/>
@@ -4747,19 +4725,20 @@
       <c r="I12" s="4" t="n"/>
       <c r="J12" s="4" t="n"/>
       <c r="K12" s="4" t="n"/>
-      <c r="L12" s="4">
-        <f>IF(AND(J12&lt;&gt;"",D12&lt;&gt;"",E12&lt;&gt;""),(J12-D12)*E12,"")</f>
-        <v/>
-      </c>
+      <c r="L12" s="4" t="n"/>
       <c r="M12" s="4">
-        <f>IF(AND(J12&lt;&gt;"",D12&lt;&gt;""),(J12-D12)/D12*100,"")</f>
+        <f>IF(AND(K12&lt;&gt;"",E12&lt;&gt;"",F12&lt;&gt;""),IF(B12="SHORT",(E12-K12)*F12,(K12-E12)*F12),"")</f>
         <v/>
       </c>
       <c r="N12" s="4">
-        <f>IF(AND(I12&lt;&gt;"",C12&lt;&gt;""),I12-C12,"")</f>
-        <v/>
-      </c>
-      <c r="O12" s="4" t="n"/>
+        <f>IF(AND(K12&lt;&gt;"",E12&lt;&gt;""),IF(B12="SHORT",(E12-K12)/E12*100,(K12-E12)/E12*100),"")</f>
+        <v/>
+      </c>
+      <c r="O12" s="4">
+        <f>IF(AND(J12&lt;&gt;"",D12&lt;&gt;""),J12-D12,"")</f>
+        <v/>
+      </c>
+      <c r="P12" s="4" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="n"/>
@@ -4773,19 +4752,20 @@
       <c r="I13" s="4" t="n"/>
       <c r="J13" s="4" t="n"/>
       <c r="K13" s="4" t="n"/>
-      <c r="L13" s="4">
-        <f>IF(AND(J13&lt;&gt;"",D13&lt;&gt;"",E13&lt;&gt;""),(J13-D13)*E13,"")</f>
-        <v/>
-      </c>
+      <c r="L13" s="4" t="n"/>
       <c r="M13" s="4">
-        <f>IF(AND(J13&lt;&gt;"",D13&lt;&gt;""),(J13-D13)/D13*100,"")</f>
+        <f>IF(AND(K13&lt;&gt;"",E13&lt;&gt;"",F13&lt;&gt;""),IF(B13="SHORT",(E13-K13)*F13,(K13-E13)*F13),"")</f>
         <v/>
       </c>
       <c r="N13" s="4">
-        <f>IF(AND(I13&lt;&gt;"",C13&lt;&gt;""),I13-C13,"")</f>
-        <v/>
-      </c>
-      <c r="O13" s="4" t="n"/>
+        <f>IF(AND(K13&lt;&gt;"",E13&lt;&gt;""),IF(B13="SHORT",(E13-K13)/E13*100,(K13-E13)/E13*100),"")</f>
+        <v/>
+      </c>
+      <c r="O13" s="4">
+        <f>IF(AND(J13&lt;&gt;"",D13&lt;&gt;""),J13-D13,"")</f>
+        <v/>
+      </c>
+      <c r="P13" s="4" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="n"/>
@@ -4799,19 +4779,20 @@
       <c r="I14" s="4" t="n"/>
       <c r="J14" s="4" t="n"/>
       <c r="K14" s="4" t="n"/>
-      <c r="L14" s="4">
-        <f>IF(AND(J14&lt;&gt;"",D14&lt;&gt;"",E14&lt;&gt;""),(J14-D14)*E14,"")</f>
-        <v/>
-      </c>
+      <c r="L14" s="4" t="n"/>
       <c r="M14" s="4">
-        <f>IF(AND(J14&lt;&gt;"",D14&lt;&gt;""),(J14-D14)/D14*100,"")</f>
+        <f>IF(AND(K14&lt;&gt;"",E14&lt;&gt;"",F14&lt;&gt;""),IF(B14="SHORT",(E14-K14)*F14,(K14-E14)*F14),"")</f>
         <v/>
       </c>
       <c r="N14" s="4">
-        <f>IF(AND(I14&lt;&gt;"",C14&lt;&gt;""),I14-C14,"")</f>
-        <v/>
-      </c>
-      <c r="O14" s="4" t="n"/>
+        <f>IF(AND(K14&lt;&gt;"",E14&lt;&gt;""),IF(B14="SHORT",(E14-K14)/E14*100,(K14-E14)/E14*100),"")</f>
+        <v/>
+      </c>
+      <c r="O14" s="4">
+        <f>IF(AND(J14&lt;&gt;"",D14&lt;&gt;""),J14-D14,"")</f>
+        <v/>
+      </c>
+      <c r="P14" s="4" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="n"/>
@@ -4825,19 +4806,20 @@
       <c r="I15" s="4" t="n"/>
       <c r="J15" s="4" t="n"/>
       <c r="K15" s="4" t="n"/>
-      <c r="L15" s="4">
-        <f>IF(AND(J15&lt;&gt;"",D15&lt;&gt;"",E15&lt;&gt;""),(J15-D15)*E15,"")</f>
-        <v/>
-      </c>
+      <c r="L15" s="4" t="n"/>
       <c r="M15" s="4">
-        <f>IF(AND(J15&lt;&gt;"",D15&lt;&gt;""),(J15-D15)/D15*100,"")</f>
+        <f>IF(AND(K15&lt;&gt;"",E15&lt;&gt;"",F15&lt;&gt;""),IF(B15="SHORT",(E15-K15)*F15,(K15-E15)*F15),"")</f>
         <v/>
       </c>
       <c r="N15" s="4">
-        <f>IF(AND(I15&lt;&gt;"",C15&lt;&gt;""),I15-C15,"")</f>
-        <v/>
-      </c>
-      <c r="O15" s="4" t="n"/>
+        <f>IF(AND(K15&lt;&gt;"",E15&lt;&gt;""),IF(B15="SHORT",(E15-K15)/E15*100,(K15-E15)/E15*100),"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="4">
+        <f>IF(AND(J15&lt;&gt;"",D15&lt;&gt;""),J15-D15,"")</f>
+        <v/>
+      </c>
+      <c r="P15" s="4" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="n"/>
@@ -4851,19 +4833,20 @@
       <c r="I16" s="4" t="n"/>
       <c r="J16" s="4" t="n"/>
       <c r="K16" s="4" t="n"/>
-      <c r="L16" s="4">
-        <f>IF(AND(J16&lt;&gt;"",D16&lt;&gt;"",E16&lt;&gt;""),(J16-D16)*E16,"")</f>
-        <v/>
-      </c>
+      <c r="L16" s="4" t="n"/>
       <c r="M16" s="4">
-        <f>IF(AND(J16&lt;&gt;"",D16&lt;&gt;""),(J16-D16)/D16*100,"")</f>
+        <f>IF(AND(K16&lt;&gt;"",E16&lt;&gt;"",F16&lt;&gt;""),IF(B16="SHORT",(E16-K16)*F16,(K16-E16)*F16),"")</f>
         <v/>
       </c>
       <c r="N16" s="4">
-        <f>IF(AND(I16&lt;&gt;"",C16&lt;&gt;""),I16-C16,"")</f>
-        <v/>
-      </c>
-      <c r="O16" s="4" t="n"/>
+        <f>IF(AND(K16&lt;&gt;"",E16&lt;&gt;""),IF(B16="SHORT",(E16-K16)/E16*100,(K16-E16)/E16*100),"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="4">
+        <f>IF(AND(J16&lt;&gt;"",D16&lt;&gt;""),J16-D16,"")</f>
+        <v/>
+      </c>
+      <c r="P16" s="4" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n"/>
@@ -4877,19 +4860,20 @@
       <c r="I17" s="4" t="n"/>
       <c r="J17" s="4" t="n"/>
       <c r="K17" s="4" t="n"/>
-      <c r="L17" s="4">
-        <f>IF(AND(J17&lt;&gt;"",D17&lt;&gt;"",E17&lt;&gt;""),(J17-D17)*E17,"")</f>
-        <v/>
-      </c>
+      <c r="L17" s="4" t="n"/>
       <c r="M17" s="4">
-        <f>IF(AND(J17&lt;&gt;"",D17&lt;&gt;""),(J17-D17)/D17*100,"")</f>
+        <f>IF(AND(K17&lt;&gt;"",E17&lt;&gt;"",F17&lt;&gt;""),IF(B17="SHORT",(E17-K17)*F17,(K17-E17)*F17),"")</f>
         <v/>
       </c>
       <c r="N17" s="4">
-        <f>IF(AND(I17&lt;&gt;"",C17&lt;&gt;""),I17-C17,"")</f>
-        <v/>
-      </c>
-      <c r="O17" s="4" t="n"/>
+        <f>IF(AND(K17&lt;&gt;"",E17&lt;&gt;""),IF(B17="SHORT",(E17-K17)/E17*100,(K17-E17)/E17*100),"")</f>
+        <v/>
+      </c>
+      <c r="O17" s="4">
+        <f>IF(AND(J17&lt;&gt;"",D17&lt;&gt;""),J17-D17,"")</f>
+        <v/>
+      </c>
+      <c r="P17" s="4" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n"/>
@@ -4903,19 +4887,20 @@
       <c r="I18" s="4" t="n"/>
       <c r="J18" s="4" t="n"/>
       <c r="K18" s="4" t="n"/>
-      <c r="L18" s="4">
-        <f>IF(AND(J18&lt;&gt;"",D18&lt;&gt;"",E18&lt;&gt;""),(J18-D18)*E18,"")</f>
-        <v/>
-      </c>
+      <c r="L18" s="4" t="n"/>
       <c r="M18" s="4">
-        <f>IF(AND(J18&lt;&gt;"",D18&lt;&gt;""),(J18-D18)/D18*100,"")</f>
+        <f>IF(AND(K18&lt;&gt;"",E18&lt;&gt;"",F18&lt;&gt;""),IF(B18="SHORT",(E18-K18)*F18,(K18-E18)*F18),"")</f>
         <v/>
       </c>
       <c r="N18" s="4">
-        <f>IF(AND(I18&lt;&gt;"",C18&lt;&gt;""),I18-C18,"")</f>
-        <v/>
-      </c>
-      <c r="O18" s="4" t="n"/>
+        <f>IF(AND(K18&lt;&gt;"",E18&lt;&gt;""),IF(B18="SHORT",(E18-K18)/E18*100,(K18-E18)/E18*100),"")</f>
+        <v/>
+      </c>
+      <c r="O18" s="4">
+        <f>IF(AND(J18&lt;&gt;"",D18&lt;&gt;""),J18-D18,"")</f>
+        <v/>
+      </c>
+      <c r="P18" s="4" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n"/>
@@ -4929,19 +4914,20 @@
       <c r="I19" s="4" t="n"/>
       <c r="J19" s="4" t="n"/>
       <c r="K19" s="4" t="n"/>
-      <c r="L19" s="4">
-        <f>IF(AND(J19&lt;&gt;"",D19&lt;&gt;"",E19&lt;&gt;""),(J19-D19)*E19,"")</f>
-        <v/>
-      </c>
+      <c r="L19" s="4" t="n"/>
       <c r="M19" s="4">
-        <f>IF(AND(J19&lt;&gt;"",D19&lt;&gt;""),(J19-D19)/D19*100,"")</f>
+        <f>IF(AND(K19&lt;&gt;"",E19&lt;&gt;"",F19&lt;&gt;""),IF(B19="SHORT",(E19-K19)*F19,(K19-E19)*F19),"")</f>
         <v/>
       </c>
       <c r="N19" s="4">
-        <f>IF(AND(I19&lt;&gt;"",C19&lt;&gt;""),I19-C19,"")</f>
-        <v/>
-      </c>
-      <c r="O19" s="4" t="n"/>
+        <f>IF(AND(K19&lt;&gt;"",E19&lt;&gt;""),IF(B19="SHORT",(E19-K19)/E19*100,(K19-E19)/E19*100),"")</f>
+        <v/>
+      </c>
+      <c r="O19" s="4">
+        <f>IF(AND(J19&lt;&gt;"",D19&lt;&gt;""),J19-D19,"")</f>
+        <v/>
+      </c>
+      <c r="P19" s="4" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="n"/>
@@ -4955,19 +4941,20 @@
       <c r="I20" s="4" t="n"/>
       <c r="J20" s="4" t="n"/>
       <c r="K20" s="4" t="n"/>
-      <c r="L20" s="4">
-        <f>IF(AND(J20&lt;&gt;"",D20&lt;&gt;"",E20&lt;&gt;""),(J20-D20)*E20,"")</f>
-        <v/>
-      </c>
+      <c r="L20" s="4" t="n"/>
       <c r="M20" s="4">
-        <f>IF(AND(J20&lt;&gt;"",D20&lt;&gt;""),(J20-D20)/D20*100,"")</f>
+        <f>IF(AND(K20&lt;&gt;"",E20&lt;&gt;"",F20&lt;&gt;""),IF(B20="SHORT",(E20-K20)*F20,(K20-E20)*F20),"")</f>
         <v/>
       </c>
       <c r="N20" s="4">
-        <f>IF(AND(I20&lt;&gt;"",C20&lt;&gt;""),I20-C20,"")</f>
-        <v/>
-      </c>
-      <c r="O20" s="4" t="n"/>
+        <f>IF(AND(K20&lt;&gt;"",E20&lt;&gt;""),IF(B20="SHORT",(E20-K20)/E20*100,(K20-E20)/E20*100),"")</f>
+        <v/>
+      </c>
+      <c r="O20" s="4">
+        <f>IF(AND(J20&lt;&gt;"",D20&lt;&gt;""),J20-D20,"")</f>
+        <v/>
+      </c>
+      <c r="P20" s="4" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="n"/>
@@ -4981,19 +4968,20 @@
       <c r="I21" s="4" t="n"/>
       <c r="J21" s="4" t="n"/>
       <c r="K21" s="4" t="n"/>
-      <c r="L21" s="4">
-        <f>IF(AND(J21&lt;&gt;"",D21&lt;&gt;"",E21&lt;&gt;""),(J21-D21)*E21,"")</f>
-        <v/>
-      </c>
+      <c r="L21" s="4" t="n"/>
       <c r="M21" s="4">
-        <f>IF(AND(J21&lt;&gt;"",D21&lt;&gt;""),(J21-D21)/D21*100,"")</f>
+        <f>IF(AND(K21&lt;&gt;"",E21&lt;&gt;"",F21&lt;&gt;""),IF(B21="SHORT",(E21-K21)*F21,(K21-E21)*F21),"")</f>
         <v/>
       </c>
       <c r="N21" s="4">
-        <f>IF(AND(I21&lt;&gt;"",C21&lt;&gt;""),I21-C21,"")</f>
-        <v/>
-      </c>
-      <c r="O21" s="4" t="n"/>
+        <f>IF(AND(K21&lt;&gt;"",E21&lt;&gt;""),IF(B21="SHORT",(E21-K21)/E21*100,(K21-E21)/E21*100),"")</f>
+        <v/>
+      </c>
+      <c r="O21" s="4">
+        <f>IF(AND(J21&lt;&gt;"",D21&lt;&gt;""),J21-D21,"")</f>
+        <v/>
+      </c>
+      <c r="P21" s="4" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="n"/>
@@ -5007,19 +4995,20 @@
       <c r="I22" s="4" t="n"/>
       <c r="J22" s="4" t="n"/>
       <c r="K22" s="4" t="n"/>
-      <c r="L22" s="4">
-        <f>IF(AND(J22&lt;&gt;"",D22&lt;&gt;"",E22&lt;&gt;""),(J22-D22)*E22,"")</f>
-        <v/>
-      </c>
+      <c r="L22" s="4" t="n"/>
       <c r="M22" s="4">
-        <f>IF(AND(J22&lt;&gt;"",D22&lt;&gt;""),(J22-D22)/D22*100,"")</f>
+        <f>IF(AND(K22&lt;&gt;"",E22&lt;&gt;"",F22&lt;&gt;""),IF(B22="SHORT",(E22-K22)*F22,(K22-E22)*F22),"")</f>
         <v/>
       </c>
       <c r="N22" s="4">
-        <f>IF(AND(I22&lt;&gt;"",C22&lt;&gt;""),I22-C22,"")</f>
-        <v/>
-      </c>
-      <c r="O22" s="4" t="n"/>
+        <f>IF(AND(K22&lt;&gt;"",E22&lt;&gt;""),IF(B22="SHORT",(E22-K22)/E22*100,(K22-E22)/E22*100),"")</f>
+        <v/>
+      </c>
+      <c r="O22" s="4">
+        <f>IF(AND(J22&lt;&gt;"",D22&lt;&gt;""),J22-D22,"")</f>
+        <v/>
+      </c>
+      <c r="P22" s="4" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="n"/>
@@ -5033,19 +5022,20 @@
       <c r="I23" s="4" t="n"/>
       <c r="J23" s="4" t="n"/>
       <c r="K23" s="4" t="n"/>
-      <c r="L23" s="4">
-        <f>IF(AND(J23&lt;&gt;"",D23&lt;&gt;"",E23&lt;&gt;""),(J23-D23)*E23,"")</f>
-        <v/>
-      </c>
+      <c r="L23" s="4" t="n"/>
       <c r="M23" s="4">
-        <f>IF(AND(J23&lt;&gt;"",D23&lt;&gt;""),(J23-D23)/D23*100,"")</f>
+        <f>IF(AND(K23&lt;&gt;"",E23&lt;&gt;"",F23&lt;&gt;""),IF(B23="SHORT",(E23-K23)*F23,(K23-E23)*F23),"")</f>
         <v/>
       </c>
       <c r="N23" s="4">
-        <f>IF(AND(I23&lt;&gt;"",C23&lt;&gt;""),I23-C23,"")</f>
-        <v/>
-      </c>
-      <c r="O23" s="4" t="n"/>
+        <f>IF(AND(K23&lt;&gt;"",E23&lt;&gt;""),IF(B23="SHORT",(E23-K23)/E23*100,(K23-E23)/E23*100),"")</f>
+        <v/>
+      </c>
+      <c r="O23" s="4">
+        <f>IF(AND(J23&lt;&gt;"",D23&lt;&gt;""),J23-D23,"")</f>
+        <v/>
+      </c>
+      <c r="P23" s="4" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="n"/>
@@ -5059,19 +5049,20 @@
       <c r="I24" s="4" t="n"/>
       <c r="J24" s="4" t="n"/>
       <c r="K24" s="4" t="n"/>
-      <c r="L24" s="4">
-        <f>IF(AND(J24&lt;&gt;"",D24&lt;&gt;"",E24&lt;&gt;""),(J24-D24)*E24,"")</f>
-        <v/>
-      </c>
+      <c r="L24" s="4" t="n"/>
       <c r="M24" s="4">
-        <f>IF(AND(J24&lt;&gt;"",D24&lt;&gt;""),(J24-D24)/D24*100,"")</f>
+        <f>IF(AND(K24&lt;&gt;"",E24&lt;&gt;"",F24&lt;&gt;""),IF(B24="SHORT",(E24-K24)*F24,(K24-E24)*F24),"")</f>
         <v/>
       </c>
       <c r="N24" s="4">
-        <f>IF(AND(I24&lt;&gt;"",C24&lt;&gt;""),I24-C24,"")</f>
-        <v/>
-      </c>
-      <c r="O24" s="4" t="n"/>
+        <f>IF(AND(K24&lt;&gt;"",E24&lt;&gt;""),IF(B24="SHORT",(E24-K24)/E24*100,(K24-E24)/E24*100),"")</f>
+        <v/>
+      </c>
+      <c r="O24" s="4">
+        <f>IF(AND(J24&lt;&gt;"",D24&lt;&gt;""),J24-D24,"")</f>
+        <v/>
+      </c>
+      <c r="P24" s="4" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="n"/>
@@ -5085,19 +5076,20 @@
       <c r="I25" s="4" t="n"/>
       <c r="J25" s="4" t="n"/>
       <c r="K25" s="4" t="n"/>
-      <c r="L25" s="4">
-        <f>IF(AND(J25&lt;&gt;"",D25&lt;&gt;"",E25&lt;&gt;""),(J25-D25)*E25,"")</f>
-        <v/>
-      </c>
+      <c r="L25" s="4" t="n"/>
       <c r="M25" s="4">
-        <f>IF(AND(J25&lt;&gt;"",D25&lt;&gt;""),(J25-D25)/D25*100,"")</f>
+        <f>IF(AND(K25&lt;&gt;"",E25&lt;&gt;"",F25&lt;&gt;""),IF(B25="SHORT",(E25-K25)*F25,(K25-E25)*F25),"")</f>
         <v/>
       </c>
       <c r="N25" s="4">
-        <f>IF(AND(I25&lt;&gt;"",C25&lt;&gt;""),I25-C25,"")</f>
-        <v/>
-      </c>
-      <c r="O25" s="4" t="n"/>
+        <f>IF(AND(K25&lt;&gt;"",E25&lt;&gt;""),IF(B25="SHORT",(E25-K25)/E25*100,(K25-E25)/E25*100),"")</f>
+        <v/>
+      </c>
+      <c r="O25" s="4">
+        <f>IF(AND(J25&lt;&gt;"",D25&lt;&gt;""),J25-D25,"")</f>
+        <v/>
+      </c>
+      <c r="P25" s="4" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="n"/>
@@ -5111,19 +5103,20 @@
       <c r="I26" s="4" t="n"/>
       <c r="J26" s="4" t="n"/>
       <c r="K26" s="4" t="n"/>
-      <c r="L26" s="4">
-        <f>IF(AND(J26&lt;&gt;"",D26&lt;&gt;"",E26&lt;&gt;""),(J26-D26)*E26,"")</f>
-        <v/>
-      </c>
+      <c r="L26" s="4" t="n"/>
       <c r="M26" s="4">
-        <f>IF(AND(J26&lt;&gt;"",D26&lt;&gt;""),(J26-D26)/D26*100,"")</f>
+        <f>IF(AND(K26&lt;&gt;"",E26&lt;&gt;"",F26&lt;&gt;""),IF(B26="SHORT",(E26-K26)*F26,(K26-E26)*F26),"")</f>
         <v/>
       </c>
       <c r="N26" s="4">
-        <f>IF(AND(I26&lt;&gt;"",C26&lt;&gt;""),I26-C26,"")</f>
-        <v/>
-      </c>
-      <c r="O26" s="4" t="n"/>
+        <f>IF(AND(K26&lt;&gt;"",E26&lt;&gt;""),IF(B26="SHORT",(E26-K26)/E26*100,(K26-E26)/E26*100),"")</f>
+        <v/>
+      </c>
+      <c r="O26" s="4">
+        <f>IF(AND(J26&lt;&gt;"",D26&lt;&gt;""),J26-D26,"")</f>
+        <v/>
+      </c>
+      <c r="P26" s="4" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="n"/>
@@ -5137,19 +5130,20 @@
       <c r="I27" s="4" t="n"/>
       <c r="J27" s="4" t="n"/>
       <c r="K27" s="4" t="n"/>
-      <c r="L27" s="4">
-        <f>IF(AND(J27&lt;&gt;"",D27&lt;&gt;"",E27&lt;&gt;""),(J27-D27)*E27,"")</f>
-        <v/>
-      </c>
+      <c r="L27" s="4" t="n"/>
       <c r="M27" s="4">
-        <f>IF(AND(J27&lt;&gt;"",D27&lt;&gt;""),(J27-D27)/D27*100,"")</f>
+        <f>IF(AND(K27&lt;&gt;"",E27&lt;&gt;"",F27&lt;&gt;""),IF(B27="SHORT",(E27-K27)*F27,(K27-E27)*F27),"")</f>
         <v/>
       </c>
       <c r="N27" s="4">
-        <f>IF(AND(I27&lt;&gt;"",C27&lt;&gt;""),I27-C27,"")</f>
-        <v/>
-      </c>
-      <c r="O27" s="4" t="n"/>
+        <f>IF(AND(K27&lt;&gt;"",E27&lt;&gt;""),IF(B27="SHORT",(E27-K27)/E27*100,(K27-E27)/E27*100),"")</f>
+        <v/>
+      </c>
+      <c r="O27" s="4">
+        <f>IF(AND(J27&lt;&gt;"",D27&lt;&gt;""),J27-D27,"")</f>
+        <v/>
+      </c>
+      <c r="P27" s="4" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="n"/>
@@ -5163,19 +5157,20 @@
       <c r="I28" s="4" t="n"/>
       <c r="J28" s="4" t="n"/>
       <c r="K28" s="4" t="n"/>
-      <c r="L28" s="4">
-        <f>IF(AND(J28&lt;&gt;"",D28&lt;&gt;"",E28&lt;&gt;""),(J28-D28)*E28,"")</f>
-        <v/>
-      </c>
+      <c r="L28" s="4" t="n"/>
       <c r="M28" s="4">
-        <f>IF(AND(J28&lt;&gt;"",D28&lt;&gt;""),(J28-D28)/D28*100,"")</f>
+        <f>IF(AND(K28&lt;&gt;"",E28&lt;&gt;"",F28&lt;&gt;""),IF(B28="SHORT",(E28-K28)*F28,(K28-E28)*F28),"")</f>
         <v/>
       </c>
       <c r="N28" s="4">
-        <f>IF(AND(I28&lt;&gt;"",C28&lt;&gt;""),I28-C28,"")</f>
-        <v/>
-      </c>
-      <c r="O28" s="4" t="n"/>
+        <f>IF(AND(K28&lt;&gt;"",E28&lt;&gt;""),IF(B28="SHORT",(E28-K28)/E28*100,(K28-E28)/E28*100),"")</f>
+        <v/>
+      </c>
+      <c r="O28" s="4">
+        <f>IF(AND(J28&lt;&gt;"",D28&lt;&gt;""),J28-D28,"")</f>
+        <v/>
+      </c>
+      <c r="P28" s="4" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="n"/>
@@ -5189,19 +5184,20 @@
       <c r="I29" s="4" t="n"/>
       <c r="J29" s="4" t="n"/>
       <c r="K29" s="4" t="n"/>
-      <c r="L29" s="4">
-        <f>IF(AND(J29&lt;&gt;"",D29&lt;&gt;"",E29&lt;&gt;""),(J29-D29)*E29,"")</f>
-        <v/>
-      </c>
+      <c r="L29" s="4" t="n"/>
       <c r="M29" s="4">
-        <f>IF(AND(J29&lt;&gt;"",D29&lt;&gt;""),(J29-D29)/D29*100,"")</f>
+        <f>IF(AND(K29&lt;&gt;"",E29&lt;&gt;"",F29&lt;&gt;""),IF(B29="SHORT",(E29-K29)*F29,(K29-E29)*F29),"")</f>
         <v/>
       </c>
       <c r="N29" s="4">
-        <f>IF(AND(I29&lt;&gt;"",C29&lt;&gt;""),I29-C29,"")</f>
-        <v/>
-      </c>
-      <c r="O29" s="4" t="n"/>
+        <f>IF(AND(K29&lt;&gt;"",E29&lt;&gt;""),IF(B29="SHORT",(E29-K29)/E29*100,(K29-E29)/E29*100),"")</f>
+        <v/>
+      </c>
+      <c r="O29" s="4">
+        <f>IF(AND(J29&lt;&gt;"",D29&lt;&gt;""),J29-D29,"")</f>
+        <v/>
+      </c>
+      <c r="P29" s="4" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="n"/>
@@ -5215,19 +5211,20 @@
       <c r="I30" s="4" t="n"/>
       <c r="J30" s="4" t="n"/>
       <c r="K30" s="4" t="n"/>
-      <c r="L30" s="4">
-        <f>IF(AND(J30&lt;&gt;"",D30&lt;&gt;"",E30&lt;&gt;""),(J30-D30)*E30,"")</f>
-        <v/>
-      </c>
+      <c r="L30" s="4" t="n"/>
       <c r="M30" s="4">
-        <f>IF(AND(J30&lt;&gt;"",D30&lt;&gt;""),(J30-D30)/D30*100,"")</f>
+        <f>IF(AND(K30&lt;&gt;"",E30&lt;&gt;"",F30&lt;&gt;""),IF(B30="SHORT",(E30-K30)*F30,(K30-E30)*F30),"")</f>
         <v/>
       </c>
       <c r="N30" s="4">
-        <f>IF(AND(I30&lt;&gt;"",C30&lt;&gt;""),I30-C30,"")</f>
-        <v/>
-      </c>
-      <c r="O30" s="4" t="n"/>
+        <f>IF(AND(K30&lt;&gt;"",E30&lt;&gt;""),IF(B30="SHORT",(E30-K30)/E30*100,(K30-E30)/E30*100),"")</f>
+        <v/>
+      </c>
+      <c r="O30" s="4">
+        <f>IF(AND(J30&lt;&gt;"",D30&lt;&gt;""),J30-D30,"")</f>
+        <v/>
+      </c>
+      <c r="P30" s="4" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="n"/>
@@ -5241,19 +5238,20 @@
       <c r="I31" s="4" t="n"/>
       <c r="J31" s="4" t="n"/>
       <c r="K31" s="4" t="n"/>
-      <c r="L31" s="4">
-        <f>IF(AND(J31&lt;&gt;"",D31&lt;&gt;"",E31&lt;&gt;""),(J31-D31)*E31,"")</f>
-        <v/>
-      </c>
+      <c r="L31" s="4" t="n"/>
       <c r="M31" s="4">
-        <f>IF(AND(J31&lt;&gt;"",D31&lt;&gt;""),(J31-D31)/D31*100,"")</f>
+        <f>IF(AND(K31&lt;&gt;"",E31&lt;&gt;"",F31&lt;&gt;""),IF(B31="SHORT",(E31-K31)*F31,(K31-E31)*F31),"")</f>
         <v/>
       </c>
       <c r="N31" s="4">
-        <f>IF(AND(I31&lt;&gt;"",C31&lt;&gt;""),I31-C31,"")</f>
-        <v/>
-      </c>
-      <c r="O31" s="4" t="n"/>
+        <f>IF(AND(K31&lt;&gt;"",E31&lt;&gt;""),IF(B31="SHORT",(E31-K31)/E31*100,(K31-E31)/E31*100),"")</f>
+        <v/>
+      </c>
+      <c r="O31" s="4">
+        <f>IF(AND(J31&lt;&gt;"",D31&lt;&gt;""),J31-D31,"")</f>
+        <v/>
+      </c>
+      <c r="P31" s="4" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="n"/>
@@ -5267,19 +5265,20 @@
       <c r="I32" s="4" t="n"/>
       <c r="J32" s="4" t="n"/>
       <c r="K32" s="4" t="n"/>
-      <c r="L32" s="4">
-        <f>IF(AND(J32&lt;&gt;"",D32&lt;&gt;"",E32&lt;&gt;""),(J32-D32)*E32,"")</f>
-        <v/>
-      </c>
+      <c r="L32" s="4" t="n"/>
       <c r="M32" s="4">
-        <f>IF(AND(J32&lt;&gt;"",D32&lt;&gt;""),(J32-D32)/D32*100,"")</f>
+        <f>IF(AND(K32&lt;&gt;"",E32&lt;&gt;"",F32&lt;&gt;""),IF(B32="SHORT",(E32-K32)*F32,(K32-E32)*F32),"")</f>
         <v/>
       </c>
       <c r="N32" s="4">
-        <f>IF(AND(I32&lt;&gt;"",C32&lt;&gt;""),I32-C32,"")</f>
-        <v/>
-      </c>
-      <c r="O32" s="4" t="n"/>
+        <f>IF(AND(K32&lt;&gt;"",E32&lt;&gt;""),IF(B32="SHORT",(E32-K32)/E32*100,(K32-E32)/E32*100),"")</f>
+        <v/>
+      </c>
+      <c r="O32" s="4">
+        <f>IF(AND(J32&lt;&gt;"",D32&lt;&gt;""),J32-D32,"")</f>
+        <v/>
+      </c>
+      <c r="P32" s="4" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="n"/>
@@ -5293,19 +5292,20 @@
       <c r="I33" s="4" t="n"/>
       <c r="J33" s="4" t="n"/>
       <c r="K33" s="4" t="n"/>
-      <c r="L33" s="4">
-        <f>IF(AND(J33&lt;&gt;"",D33&lt;&gt;"",E33&lt;&gt;""),(J33-D33)*E33,"")</f>
-        <v/>
-      </c>
+      <c r="L33" s="4" t="n"/>
       <c r="M33" s="4">
-        <f>IF(AND(J33&lt;&gt;"",D33&lt;&gt;""),(J33-D33)/D33*100,"")</f>
+        <f>IF(AND(K33&lt;&gt;"",E33&lt;&gt;"",F33&lt;&gt;""),IF(B33="SHORT",(E33-K33)*F33,(K33-E33)*F33),"")</f>
         <v/>
       </c>
       <c r="N33" s="4">
-        <f>IF(AND(I33&lt;&gt;"",C33&lt;&gt;""),I33-C33,"")</f>
-        <v/>
-      </c>
-      <c r="O33" s="4" t="n"/>
+        <f>IF(AND(K33&lt;&gt;"",E33&lt;&gt;""),IF(B33="SHORT",(E33-K33)/E33*100,(K33-E33)/E33*100),"")</f>
+        <v/>
+      </c>
+      <c r="O33" s="4">
+        <f>IF(AND(J33&lt;&gt;"",D33&lt;&gt;""),J33-D33,"")</f>
+        <v/>
+      </c>
+      <c r="P33" s="4" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="n"/>
@@ -5319,19 +5319,20 @@
       <c r="I34" s="4" t="n"/>
       <c r="J34" s="4" t="n"/>
       <c r="K34" s="4" t="n"/>
-      <c r="L34" s="4">
-        <f>IF(AND(J34&lt;&gt;"",D34&lt;&gt;"",E34&lt;&gt;""),(J34-D34)*E34,"")</f>
-        <v/>
-      </c>
+      <c r="L34" s="4" t="n"/>
       <c r="M34" s="4">
-        <f>IF(AND(J34&lt;&gt;"",D34&lt;&gt;""),(J34-D34)/D34*100,"")</f>
+        <f>IF(AND(K34&lt;&gt;"",E34&lt;&gt;"",F34&lt;&gt;""),IF(B34="SHORT",(E34-K34)*F34,(K34-E34)*F34),"")</f>
         <v/>
       </c>
       <c r="N34" s="4">
-        <f>IF(AND(I34&lt;&gt;"",C34&lt;&gt;""),I34-C34,"")</f>
-        <v/>
-      </c>
-      <c r="O34" s="4" t="n"/>
+        <f>IF(AND(K34&lt;&gt;"",E34&lt;&gt;""),IF(B34="SHORT",(E34-K34)/E34*100,(K34-E34)/E34*100),"")</f>
+        <v/>
+      </c>
+      <c r="O34" s="4">
+        <f>IF(AND(J34&lt;&gt;"",D34&lt;&gt;""),J34-D34,"")</f>
+        <v/>
+      </c>
+      <c r="P34" s="4" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n"/>
@@ -5345,19 +5346,20 @@
       <c r="I35" s="4" t="n"/>
       <c r="J35" s="4" t="n"/>
       <c r="K35" s="4" t="n"/>
-      <c r="L35" s="4">
-        <f>IF(AND(J35&lt;&gt;"",D35&lt;&gt;"",E35&lt;&gt;""),(J35-D35)*E35,"")</f>
-        <v/>
-      </c>
+      <c r="L35" s="4" t="n"/>
       <c r="M35" s="4">
-        <f>IF(AND(J35&lt;&gt;"",D35&lt;&gt;""),(J35-D35)/D35*100,"")</f>
+        <f>IF(AND(K35&lt;&gt;"",E35&lt;&gt;"",F35&lt;&gt;""),IF(B35="SHORT",(E35-K35)*F35,(K35-E35)*F35),"")</f>
         <v/>
       </c>
       <c r="N35" s="4">
-        <f>IF(AND(I35&lt;&gt;"",C35&lt;&gt;""),I35-C35,"")</f>
-        <v/>
-      </c>
-      <c r="O35" s="4" t="n"/>
+        <f>IF(AND(K35&lt;&gt;"",E35&lt;&gt;""),IF(B35="SHORT",(E35-K35)/E35*100,(K35-E35)/E35*100),"")</f>
+        <v/>
+      </c>
+      <c r="O35" s="4">
+        <f>IF(AND(J35&lt;&gt;"",D35&lt;&gt;""),J35-D35,"")</f>
+        <v/>
+      </c>
+      <c r="P35" s="4" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="n"/>
@@ -5371,19 +5373,20 @@
       <c r="I36" s="4" t="n"/>
       <c r="J36" s="4" t="n"/>
       <c r="K36" s="4" t="n"/>
-      <c r="L36" s="4">
-        <f>IF(AND(J36&lt;&gt;"",D36&lt;&gt;"",E36&lt;&gt;""),(J36-D36)*E36,"")</f>
-        <v/>
-      </c>
+      <c r="L36" s="4" t="n"/>
       <c r="M36" s="4">
-        <f>IF(AND(J36&lt;&gt;"",D36&lt;&gt;""),(J36-D36)/D36*100,"")</f>
+        <f>IF(AND(K36&lt;&gt;"",E36&lt;&gt;"",F36&lt;&gt;""),IF(B36="SHORT",(E36-K36)*F36,(K36-E36)*F36),"")</f>
         <v/>
       </c>
       <c r="N36" s="4">
-        <f>IF(AND(I36&lt;&gt;"",C36&lt;&gt;""),I36-C36,"")</f>
-        <v/>
-      </c>
-      <c r="O36" s="4" t="n"/>
+        <f>IF(AND(K36&lt;&gt;"",E36&lt;&gt;""),IF(B36="SHORT",(E36-K36)/E36*100,(K36-E36)/E36*100),"")</f>
+        <v/>
+      </c>
+      <c r="O36" s="4">
+        <f>IF(AND(J36&lt;&gt;"",D36&lt;&gt;""),J36-D36,"")</f>
+        <v/>
+      </c>
+      <c r="P36" s="4" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="n"/>
@@ -5397,19 +5400,20 @@
       <c r="I37" s="4" t="n"/>
       <c r="J37" s="4" t="n"/>
       <c r="K37" s="4" t="n"/>
-      <c r="L37" s="4">
-        <f>IF(AND(J37&lt;&gt;"",D37&lt;&gt;"",E37&lt;&gt;""),(J37-D37)*E37,"")</f>
-        <v/>
-      </c>
+      <c r="L37" s="4" t="n"/>
       <c r="M37" s="4">
-        <f>IF(AND(J37&lt;&gt;"",D37&lt;&gt;""),(J37-D37)/D37*100,"")</f>
+        <f>IF(AND(K37&lt;&gt;"",E37&lt;&gt;"",F37&lt;&gt;""),IF(B37="SHORT",(E37-K37)*F37,(K37-E37)*F37),"")</f>
         <v/>
       </c>
       <c r="N37" s="4">
-        <f>IF(AND(I37&lt;&gt;"",C37&lt;&gt;""),I37-C37,"")</f>
-        <v/>
-      </c>
-      <c r="O37" s="4" t="n"/>
+        <f>IF(AND(K37&lt;&gt;"",E37&lt;&gt;""),IF(B37="SHORT",(E37-K37)/E37*100,(K37-E37)/E37*100),"")</f>
+        <v/>
+      </c>
+      <c r="O37" s="4">
+        <f>IF(AND(J37&lt;&gt;"",D37&lt;&gt;""),J37-D37,"")</f>
+        <v/>
+      </c>
+      <c r="P37" s="4" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="n"/>
@@ -5423,19 +5427,20 @@
       <c r="I38" s="4" t="n"/>
       <c r="J38" s="4" t="n"/>
       <c r="K38" s="4" t="n"/>
-      <c r="L38" s="4">
-        <f>IF(AND(J38&lt;&gt;"",D38&lt;&gt;"",E38&lt;&gt;""),(J38-D38)*E38,"")</f>
-        <v/>
-      </c>
+      <c r="L38" s="4" t="n"/>
       <c r="M38" s="4">
-        <f>IF(AND(J38&lt;&gt;"",D38&lt;&gt;""),(J38-D38)/D38*100,"")</f>
+        <f>IF(AND(K38&lt;&gt;"",E38&lt;&gt;"",F38&lt;&gt;""),IF(B38="SHORT",(E38-K38)*F38,(K38-E38)*F38),"")</f>
         <v/>
       </c>
       <c r="N38" s="4">
-        <f>IF(AND(I38&lt;&gt;"",C38&lt;&gt;""),I38-C38,"")</f>
-        <v/>
-      </c>
-      <c r="O38" s="4" t="n"/>
+        <f>IF(AND(K38&lt;&gt;"",E38&lt;&gt;""),IF(B38="SHORT",(E38-K38)/E38*100,(K38-E38)/E38*100),"")</f>
+        <v/>
+      </c>
+      <c r="O38" s="4">
+        <f>IF(AND(J38&lt;&gt;"",D38&lt;&gt;""),J38-D38,"")</f>
+        <v/>
+      </c>
+      <c r="P38" s="4" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="n"/>
@@ -5449,19 +5454,20 @@
       <c r="I39" s="4" t="n"/>
       <c r="J39" s="4" t="n"/>
       <c r="K39" s="4" t="n"/>
-      <c r="L39" s="4">
-        <f>IF(AND(J39&lt;&gt;"",D39&lt;&gt;"",E39&lt;&gt;""),(J39-D39)*E39,"")</f>
-        <v/>
-      </c>
+      <c r="L39" s="4" t="n"/>
       <c r="M39" s="4">
-        <f>IF(AND(J39&lt;&gt;"",D39&lt;&gt;""),(J39-D39)/D39*100,"")</f>
+        <f>IF(AND(K39&lt;&gt;"",E39&lt;&gt;"",F39&lt;&gt;""),IF(B39="SHORT",(E39-K39)*F39,(K39-E39)*F39),"")</f>
         <v/>
       </c>
       <c r="N39" s="4">
-        <f>IF(AND(I39&lt;&gt;"",C39&lt;&gt;""),I39-C39,"")</f>
-        <v/>
-      </c>
-      <c r="O39" s="4" t="n"/>
+        <f>IF(AND(K39&lt;&gt;"",E39&lt;&gt;""),IF(B39="SHORT",(E39-K39)/E39*100,(K39-E39)/E39*100),"")</f>
+        <v/>
+      </c>
+      <c r="O39" s="4">
+        <f>IF(AND(J39&lt;&gt;"",D39&lt;&gt;""),J39-D39,"")</f>
+        <v/>
+      </c>
+      <c r="P39" s="4" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="n"/>
@@ -5475,19 +5481,20 @@
       <c r="I40" s="4" t="n"/>
       <c r="J40" s="4" t="n"/>
       <c r="K40" s="4" t="n"/>
-      <c r="L40" s="4">
-        <f>IF(AND(J40&lt;&gt;"",D40&lt;&gt;"",E40&lt;&gt;""),(J40-D40)*E40,"")</f>
-        <v/>
-      </c>
+      <c r="L40" s="4" t="n"/>
       <c r="M40" s="4">
-        <f>IF(AND(J40&lt;&gt;"",D40&lt;&gt;""),(J40-D40)/D40*100,"")</f>
+        <f>IF(AND(K40&lt;&gt;"",E40&lt;&gt;"",F40&lt;&gt;""),IF(B40="SHORT",(E40-K40)*F40,(K40-E40)*F40),"")</f>
         <v/>
       </c>
       <c r="N40" s="4">
-        <f>IF(AND(I40&lt;&gt;"",C40&lt;&gt;""),I40-C40,"")</f>
-        <v/>
-      </c>
-      <c r="O40" s="4" t="n"/>
+        <f>IF(AND(K40&lt;&gt;"",E40&lt;&gt;""),IF(B40="SHORT",(E40-K40)/E40*100,(K40-E40)/E40*100),"")</f>
+        <v/>
+      </c>
+      <c r="O40" s="4">
+        <f>IF(AND(J40&lt;&gt;"",D40&lt;&gt;""),J40-D40,"")</f>
+        <v/>
+      </c>
+      <c r="P40" s="4" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="n"/>
@@ -5501,19 +5508,20 @@
       <c r="I41" s="4" t="n"/>
       <c r="J41" s="4" t="n"/>
       <c r="K41" s="4" t="n"/>
-      <c r="L41" s="4">
-        <f>IF(AND(J41&lt;&gt;"",D41&lt;&gt;"",E41&lt;&gt;""),(J41-D41)*E41,"")</f>
-        <v/>
-      </c>
+      <c r="L41" s="4" t="n"/>
       <c r="M41" s="4">
-        <f>IF(AND(J41&lt;&gt;"",D41&lt;&gt;""),(J41-D41)/D41*100,"")</f>
+        <f>IF(AND(K41&lt;&gt;"",E41&lt;&gt;"",F41&lt;&gt;""),IF(B41="SHORT",(E41-K41)*F41,(K41-E41)*F41),"")</f>
         <v/>
       </c>
       <c r="N41" s="4">
-        <f>IF(AND(I41&lt;&gt;"",C41&lt;&gt;""),I41-C41,"")</f>
-        <v/>
-      </c>
-      <c r="O41" s="4" t="n"/>
+        <f>IF(AND(K41&lt;&gt;"",E41&lt;&gt;""),IF(B41="SHORT",(E41-K41)/E41*100,(K41-E41)/E41*100),"")</f>
+        <v/>
+      </c>
+      <c r="O41" s="4">
+        <f>IF(AND(J41&lt;&gt;"",D41&lt;&gt;""),J41-D41,"")</f>
+        <v/>
+      </c>
+      <c r="P41" s="4" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="n"/>
@@ -5527,19 +5535,20 @@
       <c r="I42" s="4" t="n"/>
       <c r="J42" s="4" t="n"/>
       <c r="K42" s="4" t="n"/>
-      <c r="L42" s="4">
-        <f>IF(AND(J42&lt;&gt;"",D42&lt;&gt;"",E42&lt;&gt;""),(J42-D42)*E42,"")</f>
-        <v/>
-      </c>
+      <c r="L42" s="4" t="n"/>
       <c r="M42" s="4">
-        <f>IF(AND(J42&lt;&gt;"",D42&lt;&gt;""),(J42-D42)/D42*100,"")</f>
+        <f>IF(AND(K42&lt;&gt;"",E42&lt;&gt;"",F42&lt;&gt;""),IF(B42="SHORT",(E42-K42)*F42,(K42-E42)*F42),"")</f>
         <v/>
       </c>
       <c r="N42" s="4">
-        <f>IF(AND(I42&lt;&gt;"",C42&lt;&gt;""),I42-C42,"")</f>
-        <v/>
-      </c>
-      <c r="O42" s="4" t="n"/>
+        <f>IF(AND(K42&lt;&gt;"",E42&lt;&gt;""),IF(B42="SHORT",(E42-K42)/E42*100,(K42-E42)/E42*100),"")</f>
+        <v/>
+      </c>
+      <c r="O42" s="4">
+        <f>IF(AND(J42&lt;&gt;"",D42&lt;&gt;""),J42-D42,"")</f>
+        <v/>
+      </c>
+      <c r="P42" s="4" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="n"/>
@@ -5553,19 +5562,20 @@
       <c r="I43" s="4" t="n"/>
       <c r="J43" s="4" t="n"/>
       <c r="K43" s="4" t="n"/>
-      <c r="L43" s="4">
-        <f>IF(AND(J43&lt;&gt;"",D43&lt;&gt;"",E43&lt;&gt;""),(J43-D43)*E43,"")</f>
-        <v/>
-      </c>
+      <c r="L43" s="4" t="n"/>
       <c r="M43" s="4">
-        <f>IF(AND(J43&lt;&gt;"",D43&lt;&gt;""),(J43-D43)/D43*100,"")</f>
+        <f>IF(AND(K43&lt;&gt;"",E43&lt;&gt;"",F43&lt;&gt;""),IF(B43="SHORT",(E43-K43)*F43,(K43-E43)*F43),"")</f>
         <v/>
       </c>
       <c r="N43" s="4">
-        <f>IF(AND(I43&lt;&gt;"",C43&lt;&gt;""),I43-C43,"")</f>
-        <v/>
-      </c>
-      <c r="O43" s="4" t="n"/>
+        <f>IF(AND(K43&lt;&gt;"",E43&lt;&gt;""),IF(B43="SHORT",(E43-K43)/E43*100,(K43-E43)/E43*100),"")</f>
+        <v/>
+      </c>
+      <c r="O43" s="4">
+        <f>IF(AND(J43&lt;&gt;"",D43&lt;&gt;""),J43-D43,"")</f>
+        <v/>
+      </c>
+      <c r="P43" s="4" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="n"/>
@@ -5579,19 +5589,20 @@
       <c r="I44" s="4" t="n"/>
       <c r="J44" s="4" t="n"/>
       <c r="K44" s="4" t="n"/>
-      <c r="L44" s="4">
-        <f>IF(AND(J44&lt;&gt;"",D44&lt;&gt;"",E44&lt;&gt;""),(J44-D44)*E44,"")</f>
-        <v/>
-      </c>
+      <c r="L44" s="4" t="n"/>
       <c r="M44" s="4">
-        <f>IF(AND(J44&lt;&gt;"",D44&lt;&gt;""),(J44-D44)/D44*100,"")</f>
+        <f>IF(AND(K44&lt;&gt;"",E44&lt;&gt;"",F44&lt;&gt;""),IF(B44="SHORT",(E44-K44)*F44,(K44-E44)*F44),"")</f>
         <v/>
       </c>
       <c r="N44" s="4">
-        <f>IF(AND(I44&lt;&gt;"",C44&lt;&gt;""),I44-C44,"")</f>
-        <v/>
-      </c>
-      <c r="O44" s="4" t="n"/>
+        <f>IF(AND(K44&lt;&gt;"",E44&lt;&gt;""),IF(B44="SHORT",(E44-K44)/E44*100,(K44-E44)/E44*100),"")</f>
+        <v/>
+      </c>
+      <c r="O44" s="4">
+        <f>IF(AND(J44&lt;&gt;"",D44&lt;&gt;""),J44-D44,"")</f>
+        <v/>
+      </c>
+      <c r="P44" s="4" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="n"/>
@@ -5605,19 +5616,20 @@
       <c r="I45" s="4" t="n"/>
       <c r="J45" s="4" t="n"/>
       <c r="K45" s="4" t="n"/>
-      <c r="L45" s="4">
-        <f>IF(AND(J45&lt;&gt;"",D45&lt;&gt;"",E45&lt;&gt;""),(J45-D45)*E45,"")</f>
-        <v/>
-      </c>
+      <c r="L45" s="4" t="n"/>
       <c r="M45" s="4">
-        <f>IF(AND(J45&lt;&gt;"",D45&lt;&gt;""),(J45-D45)/D45*100,"")</f>
+        <f>IF(AND(K45&lt;&gt;"",E45&lt;&gt;"",F45&lt;&gt;""),IF(B45="SHORT",(E45-K45)*F45,(K45-E45)*F45),"")</f>
         <v/>
       </c>
       <c r="N45" s="4">
-        <f>IF(AND(I45&lt;&gt;"",C45&lt;&gt;""),I45-C45,"")</f>
-        <v/>
-      </c>
-      <c r="O45" s="4" t="n"/>
+        <f>IF(AND(K45&lt;&gt;"",E45&lt;&gt;""),IF(B45="SHORT",(E45-K45)/E45*100,(K45-E45)/E45*100),"")</f>
+        <v/>
+      </c>
+      <c r="O45" s="4">
+        <f>IF(AND(J45&lt;&gt;"",D45&lt;&gt;""),J45-D45,"")</f>
+        <v/>
+      </c>
+      <c r="P45" s="4" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="4" t="n"/>
@@ -5631,19 +5643,20 @@
       <c r="I46" s="4" t="n"/>
       <c r="J46" s="4" t="n"/>
       <c r="K46" s="4" t="n"/>
-      <c r="L46" s="4">
-        <f>IF(AND(J46&lt;&gt;"",D46&lt;&gt;"",E46&lt;&gt;""),(J46-D46)*E46,"")</f>
-        <v/>
-      </c>
+      <c r="L46" s="4" t="n"/>
       <c r="M46" s="4">
-        <f>IF(AND(J46&lt;&gt;"",D46&lt;&gt;""),(J46-D46)/D46*100,"")</f>
+        <f>IF(AND(K46&lt;&gt;"",E46&lt;&gt;"",F46&lt;&gt;""),IF(B46="SHORT",(E46-K46)*F46,(K46-E46)*F46),"")</f>
         <v/>
       </c>
       <c r="N46" s="4">
-        <f>IF(AND(I46&lt;&gt;"",C46&lt;&gt;""),I46-C46,"")</f>
-        <v/>
-      </c>
-      <c r="O46" s="4" t="n"/>
+        <f>IF(AND(K46&lt;&gt;"",E46&lt;&gt;""),IF(B46="SHORT",(E46-K46)/E46*100,(K46-E46)/E46*100),"")</f>
+        <v/>
+      </c>
+      <c r="O46" s="4">
+        <f>IF(AND(J46&lt;&gt;"",D46&lt;&gt;""),J46-D46,"")</f>
+        <v/>
+      </c>
+      <c r="P46" s="4" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="4" t="n"/>
@@ -5657,19 +5670,20 @@
       <c r="I47" s="4" t="n"/>
       <c r="J47" s="4" t="n"/>
       <c r="K47" s="4" t="n"/>
-      <c r="L47" s="4">
-        <f>IF(AND(J47&lt;&gt;"",D47&lt;&gt;"",E47&lt;&gt;""),(J47-D47)*E47,"")</f>
-        <v/>
-      </c>
+      <c r="L47" s="4" t="n"/>
       <c r="M47" s="4">
-        <f>IF(AND(J47&lt;&gt;"",D47&lt;&gt;""),(J47-D47)/D47*100,"")</f>
+        <f>IF(AND(K47&lt;&gt;"",E47&lt;&gt;"",F47&lt;&gt;""),IF(B47="SHORT",(E47-K47)*F47,(K47-E47)*F47),"")</f>
         <v/>
       </c>
       <c r="N47" s="4">
-        <f>IF(AND(I47&lt;&gt;"",C47&lt;&gt;""),I47-C47,"")</f>
-        <v/>
-      </c>
-      <c r="O47" s="4" t="n"/>
+        <f>IF(AND(K47&lt;&gt;"",E47&lt;&gt;""),IF(B47="SHORT",(E47-K47)/E47*100,(K47-E47)/E47*100),"")</f>
+        <v/>
+      </c>
+      <c r="O47" s="4">
+        <f>IF(AND(J47&lt;&gt;"",D47&lt;&gt;""),J47-D47,"")</f>
+        <v/>
+      </c>
+      <c r="P47" s="4" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="n"/>
@@ -5683,19 +5697,20 @@
       <c r="I48" s="4" t="n"/>
       <c r="J48" s="4" t="n"/>
       <c r="K48" s="4" t="n"/>
-      <c r="L48" s="4">
-        <f>IF(AND(J48&lt;&gt;"",D48&lt;&gt;"",E48&lt;&gt;""),(J48-D48)*E48,"")</f>
-        <v/>
-      </c>
+      <c r="L48" s="4" t="n"/>
       <c r="M48" s="4">
-        <f>IF(AND(J48&lt;&gt;"",D48&lt;&gt;""),(J48-D48)/D48*100,"")</f>
+        <f>IF(AND(K48&lt;&gt;"",E48&lt;&gt;"",F48&lt;&gt;""),IF(B48="SHORT",(E48-K48)*F48,(K48-E48)*F48),"")</f>
         <v/>
       </c>
       <c r="N48" s="4">
-        <f>IF(AND(I48&lt;&gt;"",C48&lt;&gt;""),I48-C48,"")</f>
-        <v/>
-      </c>
-      <c r="O48" s="4" t="n"/>
+        <f>IF(AND(K48&lt;&gt;"",E48&lt;&gt;""),IF(B48="SHORT",(E48-K48)/E48*100,(K48-E48)/E48*100),"")</f>
+        <v/>
+      </c>
+      <c r="O48" s="4">
+        <f>IF(AND(J48&lt;&gt;"",D48&lt;&gt;""),J48-D48,"")</f>
+        <v/>
+      </c>
+      <c r="P48" s="4" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="n"/>
@@ -5709,19 +5724,20 @@
       <c r="I49" s="4" t="n"/>
       <c r="J49" s="4" t="n"/>
       <c r="K49" s="4" t="n"/>
-      <c r="L49" s="4">
-        <f>IF(AND(J49&lt;&gt;"",D49&lt;&gt;"",E49&lt;&gt;""),(J49-D49)*E49,"")</f>
-        <v/>
-      </c>
+      <c r="L49" s="4" t="n"/>
       <c r="M49" s="4">
-        <f>IF(AND(J49&lt;&gt;"",D49&lt;&gt;""),(J49-D49)/D49*100,"")</f>
+        <f>IF(AND(K49&lt;&gt;"",E49&lt;&gt;"",F49&lt;&gt;""),IF(B49="SHORT",(E49-K49)*F49,(K49-E49)*F49),"")</f>
         <v/>
       </c>
       <c r="N49" s="4">
-        <f>IF(AND(I49&lt;&gt;"",C49&lt;&gt;""),I49-C49,"")</f>
-        <v/>
-      </c>
-      <c r="O49" s="4" t="n"/>
+        <f>IF(AND(K49&lt;&gt;"",E49&lt;&gt;""),IF(B49="SHORT",(E49-K49)/E49*100,(K49-E49)/E49*100),"")</f>
+        <v/>
+      </c>
+      <c r="O49" s="4">
+        <f>IF(AND(J49&lt;&gt;"",D49&lt;&gt;""),J49-D49,"")</f>
+        <v/>
+      </c>
+      <c r="P49" s="4" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="4" t="n"/>
@@ -5735,19 +5751,20 @@
       <c r="I50" s="4" t="n"/>
       <c r="J50" s="4" t="n"/>
       <c r="K50" s="4" t="n"/>
-      <c r="L50" s="4">
-        <f>IF(AND(J50&lt;&gt;"",D50&lt;&gt;"",E50&lt;&gt;""),(J50-D50)*E50,"")</f>
-        <v/>
-      </c>
+      <c r="L50" s="4" t="n"/>
       <c r="M50" s="4">
-        <f>IF(AND(J50&lt;&gt;"",D50&lt;&gt;""),(J50-D50)/D50*100,"")</f>
+        <f>IF(AND(K50&lt;&gt;"",E50&lt;&gt;"",F50&lt;&gt;""),IF(B50="SHORT",(E50-K50)*F50,(K50-E50)*F50),"")</f>
         <v/>
       </c>
       <c r="N50" s="4">
-        <f>IF(AND(I50&lt;&gt;"",C50&lt;&gt;""),I50-C50,"")</f>
-        <v/>
-      </c>
-      <c r="O50" s="4" t="n"/>
+        <f>IF(AND(K50&lt;&gt;"",E50&lt;&gt;""),IF(B50="SHORT",(E50-K50)/E50*100,(K50-E50)/E50*100),"")</f>
+        <v/>
+      </c>
+      <c r="O50" s="4">
+        <f>IF(AND(J50&lt;&gt;"",D50&lt;&gt;""),J50-D50,"")</f>
+        <v/>
+      </c>
+      <c r="P50" s="4" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="n"/>
@@ -5761,19 +5778,20 @@
       <c r="I51" s="4" t="n"/>
       <c r="J51" s="4" t="n"/>
       <c r="K51" s="4" t="n"/>
-      <c r="L51" s="4">
-        <f>IF(AND(J51&lt;&gt;"",D51&lt;&gt;"",E51&lt;&gt;""),(J51-D51)*E51,"")</f>
-        <v/>
-      </c>
+      <c r="L51" s="4" t="n"/>
       <c r="M51" s="4">
-        <f>IF(AND(J51&lt;&gt;"",D51&lt;&gt;""),(J51-D51)/D51*100,"")</f>
+        <f>IF(AND(K51&lt;&gt;"",E51&lt;&gt;"",F51&lt;&gt;""),IF(B51="SHORT",(E51-K51)*F51,(K51-E51)*F51),"")</f>
         <v/>
       </c>
       <c r="N51" s="4">
-        <f>IF(AND(I51&lt;&gt;"",C51&lt;&gt;""),I51-C51,"")</f>
-        <v/>
-      </c>
-      <c r="O51" s="4" t="n"/>
+        <f>IF(AND(K51&lt;&gt;"",E51&lt;&gt;""),IF(B51="SHORT",(E51-K51)/E51*100,(K51-E51)/E51*100),"")</f>
+        <v/>
+      </c>
+      <c r="O51" s="4">
+        <f>IF(AND(J51&lt;&gt;"",D51&lt;&gt;""),J51-D51,"")</f>
+        <v/>
+      </c>
+      <c r="P51" s="4" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="4" t="n"/>
@@ -5787,19 +5805,20 @@
       <c r="I52" s="4" t="n"/>
       <c r="J52" s="4" t="n"/>
       <c r="K52" s="4" t="n"/>
-      <c r="L52" s="4">
-        <f>IF(AND(J52&lt;&gt;"",D52&lt;&gt;"",E52&lt;&gt;""),(J52-D52)*E52,"")</f>
-        <v/>
-      </c>
+      <c r="L52" s="4" t="n"/>
       <c r="M52" s="4">
-        <f>IF(AND(J52&lt;&gt;"",D52&lt;&gt;""),(J52-D52)/D52*100,"")</f>
+        <f>IF(AND(K52&lt;&gt;"",E52&lt;&gt;"",F52&lt;&gt;""),IF(B52="SHORT",(E52-K52)*F52,(K52-E52)*F52),"")</f>
         <v/>
       </c>
       <c r="N52" s="4">
-        <f>IF(AND(I52&lt;&gt;"",C52&lt;&gt;""),I52-C52,"")</f>
-        <v/>
-      </c>
-      <c r="O52" s="4" t="n"/>
+        <f>IF(AND(K52&lt;&gt;"",E52&lt;&gt;""),IF(B52="SHORT",(E52-K52)/E52*100,(K52-E52)/E52*100),"")</f>
+        <v/>
+      </c>
+      <c r="O52" s="4">
+        <f>IF(AND(J52&lt;&gt;"",D52&lt;&gt;""),J52-D52,"")</f>
+        <v/>
+      </c>
+      <c r="P52" s="4" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="n"/>
@@ -5813,19 +5832,20 @@
       <c r="I53" s="4" t="n"/>
       <c r="J53" s="4" t="n"/>
       <c r="K53" s="4" t="n"/>
-      <c r="L53" s="4">
-        <f>IF(AND(J53&lt;&gt;"",D53&lt;&gt;"",E53&lt;&gt;""),(J53-D53)*E53,"")</f>
-        <v/>
-      </c>
+      <c r="L53" s="4" t="n"/>
       <c r="M53" s="4">
-        <f>IF(AND(J53&lt;&gt;"",D53&lt;&gt;""),(J53-D53)/D53*100,"")</f>
+        <f>IF(AND(K53&lt;&gt;"",E53&lt;&gt;"",F53&lt;&gt;""),IF(B53="SHORT",(E53-K53)*F53,(K53-E53)*F53),"")</f>
         <v/>
       </c>
       <c r="N53" s="4">
-        <f>IF(AND(I53&lt;&gt;"",C53&lt;&gt;""),I53-C53,"")</f>
-        <v/>
-      </c>
-      <c r="O53" s="4" t="n"/>
+        <f>IF(AND(K53&lt;&gt;"",E53&lt;&gt;""),IF(B53="SHORT",(E53-K53)/E53*100,(K53-E53)/E53*100),"")</f>
+        <v/>
+      </c>
+      <c r="O53" s="4">
+        <f>IF(AND(J53&lt;&gt;"",D53&lt;&gt;""),J53-D53,"")</f>
+        <v/>
+      </c>
+      <c r="P53" s="4" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="4" t="n"/>
@@ -5839,126 +5859,177 @@
       <c r="I54" s="4" t="n"/>
       <c r="J54" s="4" t="n"/>
       <c r="K54" s="4" t="n"/>
-      <c r="L54" s="4">
-        <f>IF(AND(J54&lt;&gt;"",D54&lt;&gt;"",E54&lt;&gt;""),(J54-D54)*E54,"")</f>
-        <v/>
-      </c>
+      <c r="L54" s="4" t="n"/>
       <c r="M54" s="4">
-        <f>IF(AND(J54&lt;&gt;"",D54&lt;&gt;""),(J54-D54)/D54*100,"")</f>
+        <f>IF(AND(K54&lt;&gt;"",E54&lt;&gt;"",F54&lt;&gt;""),IF(B54="SHORT",(E54-K54)*F54,(K54-E54)*F54),"")</f>
         <v/>
       </c>
       <c r="N54" s="4">
-        <f>IF(AND(I54&lt;&gt;"",C54&lt;&gt;""),I54-C54,"")</f>
-        <v/>
-      </c>
-      <c r="O54" s="4" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+        <f>IF(AND(K54&lt;&gt;"",E54&lt;&gt;""),IF(B54="SHORT",(E54-K54)/E54*100,(K54-E54)/E54*100),"")</f>
+        <v/>
+      </c>
+      <c r="O54" s="4">
+        <f>IF(AND(J54&lt;&gt;"",D54&lt;&gt;""),J54-D54,"")</f>
+        <v/>
+      </c>
+      <c r="P54" s="4" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="n"/>
+      <c r="B55" s="4" t="n"/>
+      <c r="C55" s="4" t="n"/>
+      <c r="D55" s="4" t="n"/>
+      <c r="E55" s="4" t="n"/>
+      <c r="F55" s="4" t="n"/>
+      <c r="G55" s="4" t="n"/>
+      <c r="H55" s="4" t="n"/>
+      <c r="I55" s="4" t="n"/>
+      <c r="J55" s="4" t="n"/>
+      <c r="K55" s="4" t="n"/>
+      <c r="L55" s="4" t="n"/>
+      <c r="M55" s="4">
+        <f>IF(AND(K55&lt;&gt;"",E55&lt;&gt;"",F55&lt;&gt;""),IF(B55="SHORT",(E55-K55)*F55,(K55-E55)*F55),"")</f>
+        <v/>
+      </c>
+      <c r="N55" s="4">
+        <f>IF(AND(K55&lt;&gt;"",E55&lt;&gt;""),IF(B55="SHORT",(E55-K55)/E55*100,(K55-E55)/E55*100),"")</f>
+        <v/>
+      </c>
+      <c r="O55" s="4">
+        <f>IF(AND(J55&lt;&gt;"",D55&lt;&gt;""),J55-D55,"")</f>
+        <v/>
+      </c>
+      <c r="P55" s="4" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="18" t="inlineStr">
         <is>
           <t>SUMMARY STATS</t>
         </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Total Trades:</t>
-        </is>
-      </c>
-      <c r="B57">
-        <f>COUNTA(A5:A54)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Winning Trades:</t>
-        </is>
-      </c>
-      <c r="B58">
-        <f>COUNTIF(L5:L54,"&gt;0")</f>
-        <v/>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Losing Trades:</t>
+          <t>Total Trades:</t>
         </is>
       </c>
       <c r="B59">
-        <f>COUNTIF(L5:L54,"&lt;0")</f>
+        <f>COUNTA(A6:A55)</f>
         <v/>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Win Rate:</t>
+          <t>Long Trades:</t>
         </is>
       </c>
       <c r="B60">
-        <f>IF(B57&gt;0,B58/B57*100,0)</f>
-        <v/>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
+        <f>COUNTIF(B6:B55,"LONG")</f>
+        <v/>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Total P&amp;L:</t>
+      <c r="A61" s="19" t="inlineStr">
+        <is>
+          <t>Short Trades:</t>
         </is>
       </c>
       <c r="B61">
-        <f>SUM(L5:L54)</f>
+        <f>COUNTIF(B6:B55,"SHORT")</f>
         <v/>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Avg Hold Days:</t>
+          <t>Winning Trades:</t>
         </is>
       </c>
       <c r="B62">
-        <f>IF(COUNTA(N5:N54)&gt;0,AVERAGE(N5:N54),0)</f>
+        <f>COUNTIF(M6:M55,"&gt;0")</f>
         <v/>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Avg Win %:</t>
+          <t>Losing Trades:</t>
         </is>
       </c>
       <c r="B63">
-        <f>IF(B58&gt;0,AVERAGEIF(M5:M54,"&gt;0"),0)</f>
+        <f>COUNTIF(M6:M55,"&lt;0")</f>
         <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>Win Rate:</t>
+        </is>
+      </c>
+      <c r="B64">
+        <f>IF(B59&gt;0,B62/B59*100,0)</f>
+        <v/>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Total P&amp;L:</t>
+        </is>
+      </c>
+      <c r="B65">
+        <f>SUM(M6:M55)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Avg Hold Days:</t>
+        </is>
+      </c>
+      <c r="B66">
+        <f>IF(COUNTA(O6:O55)&gt;0,AVERAGE(O6:O55),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Avg Win %:</t>
+        </is>
+      </c>
+      <c r="B67">
+        <f>IF(B62&gt;0,AVERAGEIF(N6:N55,"&gt;0"),0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>Avg Loss %:</t>
         </is>
       </c>
-      <c r="B64">
-        <f>IF(B59&gt;0,AVERAGEIF(M5:M54,"&lt;0"),0)</f>
+      <c r="B68">
+        <f>IF(B63&gt;0,AVERAGEIF(N6:N55,"&lt;0"),0)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A1:N1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A2:P2"/>
   </mergeCells>
-  <conditionalFormatting sqref="L5:L54">
+  <conditionalFormatting sqref="M6:M55">
     <cfRule type="cellIs" priority="1" operator="greaterThan" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -5966,12 +6037,17 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M54">
+  <conditionalFormatting sqref="N6:N55">
     <cfRule type="cellIs" priority="3" operator="greaterThan" dxfId="0">
       <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" priority="4" operator="lessThan" dxfId="1">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:B55">
+    <cfRule type="cellIs" priority="5" operator="equal" dxfId="2">
+      <formula>"SHORT"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6045,23 +6121,23 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>691.6672973632812</v>
+        <v>691.9199829101562</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>47.27970037039085</v>
+        <v>47.55177782102249</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>GOOGL</t>
         </is>
       </c>
     </row>
